--- a/BackTest/2019-10-31 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-31 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C2" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D2" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E2" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F2" t="n">
-        <v>930.451</v>
+        <v>531.1018</v>
       </c>
       <c r="G2" t="n">
-        <v>265.8</v>
+        <v>-31117.42178512999</v>
       </c>
       <c r="H2" t="n">
-        <v>267.7</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F3" t="n">
-        <v>268.5683</v>
+        <v>348</v>
       </c>
       <c r="G3" t="n">
-        <v>265.8666666666667</v>
+        <v>-31117.42178512999</v>
       </c>
       <c r="H3" t="n">
-        <v>267.7166666666666</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="K3" t="n">
-        <v>269</v>
-      </c>
-      <c r="L3" t="n">
-        <v>269</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>266</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,42 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C4" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D4" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E4" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F4" t="n">
-        <v>933.962</v>
+        <v>332.5296</v>
       </c>
       <c r="G4" t="n">
+        <v>-31117.42178512999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>266</v>
       </c>
-      <c r="H4" t="n">
-        <v>267.7333333333333</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>269</v>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="K4" t="n">
+        <v>266</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -562,42 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C5" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D5" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E5" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>3.8153</v>
       </c>
       <c r="G5" t="n">
-        <v>266.7333333333333</v>
+        <v>-31117.42178512999</v>
       </c>
       <c r="H5" t="n">
-        <v>267.8333333333333</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>269</v>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>266</v>
+      </c>
+      <c r="K5" t="n">
+        <v>266</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,36 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C6" t="n">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D6" t="n">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E6" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F6" t="n">
-        <v>7255.6827</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>267.2</v>
+        <v>-31118.42178512999</v>
       </c>
       <c r="H6" t="n">
-        <v>267.9</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>266</v>
+      </c>
+      <c r="K6" t="n">
+        <v>266</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -644,36 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C7" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D7" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E7" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F7" t="n">
-        <v>221.9781</v>
+        <v>400</v>
       </c>
       <c r="G7" t="n">
-        <v>267.6</v>
+        <v>-31118.42178512999</v>
       </c>
       <c r="H7" t="n">
-        <v>267.8</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>262</v>
+      </c>
+      <c r="K7" t="n">
+        <v>266</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -682,36 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C8" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D8" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E8" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F8" t="n">
-        <v>833.962</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>267.8666666666667</v>
+        <v>-31108.42178512999</v>
       </c>
       <c r="H8" t="n">
-        <v>267.8</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>262</v>
+      </c>
+      <c r="K8" t="n">
+        <v>266</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -720,36 +718,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C9" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D9" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E9" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F9" t="n">
-        <v>2.4908</v>
+        <v>170.1989</v>
       </c>
       <c r="G9" t="n">
-        <v>268.5333333333334</v>
+        <v>-31278.62068512999</v>
       </c>
       <c r="H9" t="n">
-        <v>267.85</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>267</v>
+      </c>
+      <c r="K9" t="n">
+        <v>267</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -758,36 +757,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C10" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D10" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F10" t="n">
-        <v>187.9999</v>
+        <v>13652.2983</v>
       </c>
       <c r="G10" t="n">
-        <v>268.8</v>
+        <v>-17626.32238512999</v>
       </c>
       <c r="H10" t="n">
-        <v>267.85</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>264</v>
+      </c>
+      <c r="K10" t="n">
+        <v>267</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -808,24 +812,29 @@
         <v>270</v>
       </c>
       <c r="F11" t="n">
-        <v>115</v>
+        <v>941.064</v>
       </c>
       <c r="G11" t="n">
-        <v>269.0666666666667</v>
+        <v>-16685.25838512999</v>
       </c>
       <c r="H11" t="n">
-        <v>267.8</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>268</v>
+      </c>
+      <c r="K11" t="n">
+        <v>267</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -834,36 +843,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C12" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D12" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E12" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>267.4433</v>
       </c>
       <c r="G12" t="n">
-        <v>269.6</v>
+        <v>-16952.70168512999</v>
       </c>
       <c r="H12" t="n">
-        <v>267.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>267</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,36 +884,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C13" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D13" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E13" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F13" t="n">
-        <v>2409.7794</v>
+        <v>3579.2562</v>
       </c>
       <c r="G13" t="n">
-        <v>269.9333333333333</v>
+        <v>-16952.70168512999</v>
       </c>
       <c r="H13" t="n">
-        <v>267.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>267</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -922,24 +937,27 @@
         <v>268</v>
       </c>
       <c r="F14" t="n">
-        <v>3546.7413</v>
+        <v>132.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>270</v>
+        <v>-16952.70168512999</v>
       </c>
       <c r="H14" t="n">
-        <v>267.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>267</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -948,36 +966,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C15" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D15" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E15" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F15" t="n">
-        <v>210.9999</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>270.3333333333333</v>
+        <v>-16951.70168512999</v>
       </c>
       <c r="H15" t="n">
-        <v>267.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>267</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,36 +1007,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C16" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D16" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E16" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F16" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
-        <v>270.7333333333333</v>
+        <v>-16951.70168512999</v>
       </c>
       <c r="H16" t="n">
-        <v>267.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>267</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,36 +1048,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C17" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D17" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E17" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F17" t="n">
-        <v>3.9705</v>
+        <v>941.064</v>
       </c>
       <c r="G17" t="n">
-        <v>270.9333333333333</v>
+        <v>-17892.76568512999</v>
       </c>
       <c r="H17" t="n">
-        <v>267.75</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>267</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1062,36 +1089,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C18" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D18" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E18" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F18" t="n">
-        <v>733.3161</v>
+        <v>1131.8237</v>
       </c>
       <c r="G18" t="n">
-        <v>271.1333333333333</v>
+        <v>-17892.76568512999</v>
       </c>
       <c r="H18" t="n">
-        <v>267.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>267</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,36 +1130,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C19" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D19" t="n">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="E19" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F19" t="n">
-        <v>27793.78030345</v>
+        <v>8616.818300000001</v>
       </c>
       <c r="G19" t="n">
-        <v>271.3333333333333</v>
+        <v>-26509.58398512999</v>
       </c>
       <c r="H19" t="n">
-        <v>267.85</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>267</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,36 +1171,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C20" t="n">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D20" t="n">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E20" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F20" t="n">
-        <v>194.9743</v>
+        <v>357</v>
       </c>
       <c r="G20" t="n">
-        <v>271.8666666666667</v>
+        <v>-26152.58398512999</v>
       </c>
       <c r="H20" t="n">
-        <v>268.1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>267</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1176,36 +1212,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C21" t="n">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D21" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E21" t="n">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>1225.962</v>
       </c>
       <c r="G21" t="n">
-        <v>271.9333333333333</v>
+        <v>-27378.54598512999</v>
       </c>
       <c r="H21" t="n">
-        <v>268.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>267</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1214,36 +1253,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C22" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D22" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E22" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F22" t="n">
-        <v>33</v>
+        <v>468</v>
       </c>
       <c r="G22" t="n">
-        <v>272.2666666666667</v>
+        <v>-26910.54598512999</v>
       </c>
       <c r="H22" t="n">
-        <v>268.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>267</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,36 +1294,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C23" t="n">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D23" t="n">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E23" t="n">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>3.9029</v>
       </c>
       <c r="G23" t="n">
-        <v>272.8666666666667</v>
+        <v>-26914.44888512999</v>
       </c>
       <c r="H23" t="n">
-        <v>268.55</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>267</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,36 +1335,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C24" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D24" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E24" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F24" t="n">
-        <v>130.97</v>
+        <v>7555.4081</v>
       </c>
       <c r="G24" t="n">
-        <v>272.8666666666667</v>
+        <v>-19359.04078512999</v>
       </c>
       <c r="H24" t="n">
-        <v>268.65</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>267</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,36 +1376,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C25" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D25" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E25" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F25" t="n">
-        <v>712.8908</v>
+        <v>1898.95</v>
       </c>
       <c r="G25" t="n">
-        <v>273.0666666666667</v>
+        <v>-19359.04078512999</v>
       </c>
       <c r="H25" t="n">
-        <v>268.7</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>266</v>
+      </c>
+      <c r="K25" t="n">
+        <v>267</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1366,36 +1419,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C26" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D26" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E26" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F26" t="n">
-        <v>1016.4972</v>
+        <v>53.4817</v>
       </c>
       <c r="G26" t="n">
-        <v>273.2666666666667</v>
+        <v>-19412.52248512999</v>
       </c>
       <c r="H26" t="n">
-        <v>268.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>267</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,36 +1460,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C27" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D27" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E27" t="n">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>1031.8838</v>
       </c>
       <c r="G27" t="n">
-        <v>273.6666666666667</v>
+        <v>-18380.63868512999</v>
       </c>
       <c r="H27" t="n">
-        <v>268.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>267</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,36 +1501,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C28" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D28" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E28" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F28" t="n">
-        <v>40.2014</v>
+        <v>1295.4677</v>
       </c>
       <c r="G28" t="n">
-        <v>273.7333333333333</v>
+        <v>-18380.63868512999</v>
       </c>
       <c r="H28" t="n">
-        <v>269.05</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>267</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,36 +1542,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C29" t="n">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D29" t="n">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E29" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F29" t="n">
-        <v>78.3</v>
+        <v>1060.1011</v>
       </c>
       <c r="G29" t="n">
-        <v>274.4666666666666</v>
+        <v>-19440.73978512999</v>
       </c>
       <c r="H29" t="n">
-        <v>269.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>267</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,36 +1583,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C30" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D30" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E30" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F30" t="n">
-        <v>3.2215</v>
+        <v>2385.2275</v>
       </c>
       <c r="G30" t="n">
-        <v>275</v>
+        <v>-21825.96728512999</v>
       </c>
       <c r="H30" t="n">
-        <v>269.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>267</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1556,36 +1624,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C31" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D31" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E31" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>930.451</v>
       </c>
       <c r="G31" t="n">
-        <v>275.1333333333333</v>
+        <v>-20895.51628512999</v>
       </c>
       <c r="H31" t="n">
-        <v>269.65</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>267</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,36 +1665,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C32" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D32" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E32" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F32" t="n">
-        <v>7966.4014</v>
+        <v>268.5683</v>
       </c>
       <c r="G32" t="n">
-        <v>275.2666666666667</v>
+        <v>-20895.51628512999</v>
       </c>
       <c r="H32" t="n">
-        <v>269.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>267</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,36 +1706,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C33" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D33" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E33" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F33" t="n">
-        <v>906.593</v>
+        <v>933.962</v>
       </c>
       <c r="G33" t="n">
-        <v>275.4666666666666</v>
+        <v>-19961.55428512999</v>
       </c>
       <c r="H33" t="n">
-        <v>269.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>267</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,36 +1747,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C34" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D34" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E34" t="n">
         <v>271</v>
       </c>
       <c r="F34" t="n">
-        <v>3974.675</v>
+        <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>275.3333333333333</v>
+        <v>-19861.55428512999</v>
       </c>
       <c r="H34" t="n">
-        <v>270.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>267</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,7 +1788,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C35" t="n">
         <v>273</v>
@@ -1717,27 +1797,30 @@
         <v>273</v>
       </c>
       <c r="E35" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F35" t="n">
-        <v>906.593</v>
+        <v>7255.6827</v>
       </c>
       <c r="G35" t="n">
-        <v>274.7333333333333</v>
+        <v>-27117.23698512999</v>
       </c>
       <c r="H35" t="n">
-        <v>270.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>267</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1746,36 +1829,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C36" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D36" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E36" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>221.9781</v>
       </c>
       <c r="G36" t="n">
-        <v>274.9333333333333</v>
+        <v>-27339.21508512999</v>
       </c>
       <c r="H36" t="n">
-        <v>270.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>267</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,36 +1870,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C37" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D37" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E37" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>833.962</v>
       </c>
       <c r="G37" t="n">
-        <v>274.6666666666667</v>
+        <v>-28173.17708512999</v>
       </c>
       <c r="H37" t="n">
-        <v>270.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>267</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,36 +1911,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C38" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D38" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E38" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2.4908</v>
       </c>
       <c r="G38" t="n">
-        <v>274.5333333333334</v>
+        <v>-28170.68628512999</v>
       </c>
       <c r="H38" t="n">
-        <v>270.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>267</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,36 +1952,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C39" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D39" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E39" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>187.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>274.4666666666666</v>
+        <v>-28358.68618512999</v>
       </c>
       <c r="H39" t="n">
-        <v>270.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>267</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,36 +1993,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C40" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D40" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E40" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G40" t="n">
-        <v>274.7333333333333</v>
+        <v>-28358.68618512999</v>
       </c>
       <c r="H40" t="n">
-        <v>271.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>267</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,36 +2034,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C41" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D41" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E41" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F41" t="n">
-        <v>898.148</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>274.9333333333333</v>
+        <v>-28357.68618512999</v>
       </c>
       <c r="H41" t="n">
-        <v>271.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>267</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,36 +2075,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C42" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D42" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E42" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F42" t="n">
-        <v>4834.7752</v>
+        <v>2409.7794</v>
       </c>
       <c r="G42" t="n">
-        <v>274.4</v>
+        <v>-28357.68618512999</v>
       </c>
       <c r="H42" t="n">
-        <v>271.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>267</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,36 +2116,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C43" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D43" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E43" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F43" t="n">
-        <v>10562.1167</v>
+        <v>3546.7413</v>
       </c>
       <c r="G43" t="n">
-        <v>274.4</v>
+        <v>-31904.42748512999</v>
       </c>
       <c r="H43" t="n">
-        <v>271.25</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>267</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2050,36 +2157,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C44" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D44" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E44" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F44" t="n">
-        <v>5740.5798</v>
+        <v>210.9999</v>
       </c>
       <c r="G44" t="n">
-        <v>274</v>
+        <v>-31693.42758512999</v>
       </c>
       <c r="H44" t="n">
-        <v>271.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>267</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,36 +2198,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E45" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F45" t="n">
-        <v>2884</v>
+        <v>140</v>
       </c>
       <c r="G45" t="n">
-        <v>273.6</v>
+        <v>-31693.42758512999</v>
       </c>
       <c r="H45" t="n">
-        <v>271.4</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>267</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2126,36 +2239,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C46" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D46" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E46" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F46" t="n">
-        <v>51.9</v>
+        <v>3.9705</v>
       </c>
       <c r="G46" t="n">
-        <v>273.6666666666667</v>
+        <v>-31689.45708512999</v>
       </c>
       <c r="H46" t="n">
-        <v>271.4</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>267</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,36 +2280,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C47" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D47" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E47" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F47" t="n">
-        <v>2010.51</v>
+        <v>733.3161</v>
       </c>
       <c r="G47" t="n">
-        <v>273.6666666666667</v>
+        <v>-31689.45708512999</v>
       </c>
       <c r="H47" t="n">
-        <v>271.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>267</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,30 +2327,33 @@
         <v>273</v>
       </c>
       <c r="D48" t="n">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E48" t="n">
         <v>273</v>
       </c>
       <c r="F48" t="n">
-        <v>39.6163</v>
+        <v>27793.78030345</v>
       </c>
       <c r="G48" t="n">
-        <v>273.5333333333334</v>
+        <v>-3895.676781679995</v>
       </c>
       <c r="H48" t="n">
-        <v>271.5</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>267</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2240,36 +2362,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C49" t="n">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D49" t="n">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E49" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F49" t="n">
-        <v>2800.9999</v>
+        <v>194.9743</v>
       </c>
       <c r="G49" t="n">
-        <v>273.6666666666667</v>
+        <v>-3700.702481679995</v>
       </c>
       <c r="H49" t="n">
-        <v>271.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>267</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,36 +2403,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C50" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D50" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E50" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F50" t="n">
-        <v>2640.2227</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>273.6666666666667</v>
+        <v>-3701.702481679995</v>
       </c>
       <c r="H50" t="n">
-        <v>271.75</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>267</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,36 +2444,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C51" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D51" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E51" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F51" t="n">
-        <v>554.968</v>
+        <v>33</v>
       </c>
       <c r="G51" t="n">
-        <v>273.4</v>
+        <v>-3668.702481679995</v>
       </c>
       <c r="H51" t="n">
-        <v>271.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>267</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,36 +2485,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C52" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D52" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E52" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F52" t="n">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>273.4666666666666</v>
+        <v>-3666.702481679995</v>
       </c>
       <c r="H52" t="n">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>267</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,36 +2526,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C53" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D53" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E53" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F53" t="n">
-        <v>1094.6936</v>
+        <v>130.97</v>
       </c>
       <c r="G53" t="n">
-        <v>273.2666666666667</v>
+        <v>-3797.672481679995</v>
       </c>
       <c r="H53" t="n">
-        <v>272.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>267</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,36 +2567,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C54" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D54" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E54" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F54" t="n">
-        <v>2339.6459</v>
+        <v>712.8908</v>
       </c>
       <c r="G54" t="n">
-        <v>273.4</v>
+        <v>-3797.672481679995</v>
       </c>
       <c r="H54" t="n">
-        <v>272.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>267</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2468,36 +2608,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C55" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D55" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E55" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F55" t="n">
-        <v>189.7466</v>
+        <v>1016.4972</v>
       </c>
       <c r="G55" t="n">
-        <v>273.2</v>
+        <v>-3797.672481679995</v>
       </c>
       <c r="H55" t="n">
-        <v>272.45</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>267</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,36 +2649,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C56" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D56" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E56" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F56" t="n">
-        <v>917.602</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>273</v>
+        <v>-3796.672481679995</v>
       </c>
       <c r="H56" t="n">
-        <v>272.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>267</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,24 +2702,27 @@
         <v>273</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>40.2014</v>
       </c>
       <c r="G57" t="n">
-        <v>273.2</v>
+        <v>-3836.873881679995</v>
       </c>
       <c r="H57" t="n">
-        <v>272.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>267</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,36 +2731,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C58" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D58" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E58" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F58" t="n">
-        <v>1.989</v>
+        <v>78.3</v>
       </c>
       <c r="G58" t="n">
-        <v>273.2666666666667</v>
+        <v>-3758.573881679994</v>
       </c>
       <c r="H58" t="n">
-        <v>272.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>267</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,36 +2772,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C59" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D59" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E59" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F59" t="n">
-        <v>540.532</v>
+        <v>3.2215</v>
       </c>
       <c r="G59" t="n">
-        <v>273.2</v>
+        <v>-3761.795381679995</v>
       </c>
       <c r="H59" t="n">
-        <v>272.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>267</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2661,33 +2816,36 @@
         <v>272</v>
       </c>
       <c r="C60" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D60" t="n">
         <v>272</v>
       </c>
       <c r="E60" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F60" t="n">
-        <v>12836.5799</v>
+        <v>40</v>
       </c>
       <c r="G60" t="n">
-        <v>273.1333333333333</v>
+        <v>-3801.795381679995</v>
       </c>
       <c r="H60" t="n">
-        <v>273.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>267</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,36 +2854,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C61" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D61" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E61" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F61" t="n">
-        <v>2500</v>
+        <v>7966.4014</v>
       </c>
       <c r="G61" t="n">
-        <v>273</v>
+        <v>4164.606018320005</v>
       </c>
       <c r="H61" t="n">
-        <v>273.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>267</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,36 +2895,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C62" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D62" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E62" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>906.593</v>
       </c>
       <c r="G62" t="n">
-        <v>272.9333333333333</v>
+        <v>5071.199018320005</v>
       </c>
       <c r="H62" t="n">
-        <v>273.2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>267</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,36 +2936,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>272</v>
+      </c>
+      <c r="C63" t="n">
         <v>271</v>
       </c>
-      <c r="C63" t="n">
-        <v>273</v>
-      </c>
       <c r="D63" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E63" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F63" t="n">
-        <v>848.2972</v>
+        <v>3974.675</v>
       </c>
       <c r="G63" t="n">
-        <v>272.9333333333333</v>
+        <v>1096.524018320005</v>
       </c>
       <c r="H63" t="n">
-        <v>273.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>267</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,36 +2977,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C64" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D64" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E64" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F64" t="n">
-        <v>3654.1956</v>
+        <v>906.593</v>
       </c>
       <c r="G64" t="n">
-        <v>272.6</v>
+        <v>2003.117018320005</v>
       </c>
       <c r="H64" t="n">
-        <v>273.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>267</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,36 +3018,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C65" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D65" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E65" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F65" t="n">
-        <v>895.522</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>272.4</v>
+        <v>2004.117018320005</v>
       </c>
       <c r="H65" t="n">
-        <v>273.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>267</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2886,36 +3059,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C66" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D66" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E66" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F66" t="n">
-        <v>10095.4642</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>272.0666666666667</v>
+        <v>2003.117018320005</v>
       </c>
       <c r="H66" t="n">
-        <v>273.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>267</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,36 +3100,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C67" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D67" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E67" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F67" t="n">
-        <v>3.9633</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>272.0666666666667</v>
+        <v>2004.117018320005</v>
       </c>
       <c r="H67" t="n">
-        <v>273.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>267</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,36 +3141,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C68" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D68" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E68" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F68" t="n">
-        <v>7946.4854</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>271.5333333333334</v>
+        <v>2003.117018320005</v>
       </c>
       <c r="H68" t="n">
-        <v>273.05</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>267</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,36 +3182,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C69" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D69" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E69" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>271.4666666666666</v>
+        <v>2004.117018320005</v>
       </c>
       <c r="H69" t="n">
-        <v>273.05</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>267</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,36 +3223,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C70" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D70" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E70" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F70" t="n">
-        <v>1800</v>
+        <v>898.148</v>
       </c>
       <c r="G70" t="n">
-        <v>271.0666666666667</v>
+        <v>1105.969018320005</v>
       </c>
       <c r="H70" t="n">
-        <v>273.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>267</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,33 +3267,36 @@
         <v>273</v>
       </c>
       <c r="C71" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D71" t="n">
         <v>273</v>
       </c>
       <c r="E71" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>4834.7752</v>
       </c>
       <c r="G71" t="n">
-        <v>271.0666666666667</v>
+        <v>-3728.806181679995</v>
       </c>
       <c r="H71" t="n">
-        <v>273.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>267</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,36 +3305,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C72" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D72" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E72" t="n">
         <v>271</v>
       </c>
       <c r="F72" t="n">
-        <v>903.486</v>
+        <v>10562.1167</v>
       </c>
       <c r="G72" t="n">
-        <v>270.9333333333333</v>
+        <v>6833.310518320005</v>
       </c>
       <c r="H72" t="n">
-        <v>273.05</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>267</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3155,33 +3349,36 @@
         <v>271</v>
       </c>
       <c r="C73" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D73" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E73" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F73" t="n">
-        <v>113</v>
+        <v>5740.5798</v>
       </c>
       <c r="G73" t="n">
-        <v>270.7333333333333</v>
+        <v>6833.310518320005</v>
       </c>
       <c r="H73" t="n">
-        <v>273.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>267</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3190,36 +3387,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C74" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D74" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E74" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F74" t="n">
-        <v>2501.0468</v>
+        <v>2884</v>
       </c>
       <c r="G74" t="n">
-        <v>270.4666666666666</v>
+        <v>3949.310518320005</v>
       </c>
       <c r="H74" t="n">
-        <v>273.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>267</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,24 +3440,27 @@
         <v>273</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>51.9</v>
       </c>
       <c r="G75" t="n">
-        <v>270.6</v>
+        <v>4001.210518320005</v>
       </c>
       <c r="H75" t="n">
-        <v>273.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>267</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,36 +3469,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C76" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D76" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E76" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F76" t="n">
-        <v>22.1135</v>
+        <v>2010.51</v>
       </c>
       <c r="G76" t="n">
-        <v>270.7333333333333</v>
+        <v>6011.720518320005</v>
       </c>
       <c r="H76" t="n">
-        <v>273.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>267</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,36 +3510,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C77" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D77" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E77" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F77" t="n">
-        <v>2009.1851</v>
+        <v>39.6163</v>
       </c>
       <c r="G77" t="n">
-        <v>270.5333333333334</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H77" t="n">
-        <v>273.1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>267</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,24 +3563,27 @@
         <v>273</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>2800.9999</v>
       </c>
       <c r="G78" t="n">
-        <v>270.5333333333334</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H78" t="n">
-        <v>273.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>267</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,36 +3592,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C79" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D79" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E79" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F79" t="n">
-        <v>26.3257</v>
+        <v>2640.2227</v>
       </c>
       <c r="G79" t="n">
-        <v>270.6666666666667</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H79" t="n">
-        <v>273.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>267</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,36 +3633,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C80" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D80" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E80" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>554.968</v>
       </c>
       <c r="G80" t="n">
-        <v>270.8</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H80" t="n">
-        <v>272.9</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>267</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,36 +3674,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C81" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D81" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E81" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F81" t="n">
-        <v>181</v>
+        <v>400</v>
       </c>
       <c r="G81" t="n">
-        <v>271.0666666666667</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H81" t="n">
-        <v>272.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>267</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,36 +3715,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C82" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D82" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E82" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F82" t="n">
-        <v>140</v>
+        <v>1094.6936</v>
       </c>
       <c r="G82" t="n">
-        <v>271.0666666666667</v>
+        <v>7066.797818320005</v>
       </c>
       <c r="H82" t="n">
-        <v>272.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>267</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,37 +3756,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C83" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D83" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E83" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8588</v>
+        <v>2339.6459</v>
       </c>
       <c r="G83" t="n">
-        <v>271.5333333333334</v>
+        <v>7066.797818320005</v>
       </c>
       <c r="H83" t="n">
-        <v>272.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>267</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>1.02121722846442</v>
       </c>
     </row>
     <row r="84">
@@ -3582,24 +3809,21 @@
         <v>274</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>189.7466</v>
       </c>
       <c r="G84" t="n">
-        <v>271.6</v>
+        <v>7066.797818320005</v>
       </c>
       <c r="H84" t="n">
-        <v>272.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,36 +3832,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C85" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D85" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E85" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F85" t="n">
-        <v>3000</v>
+        <v>917.602</v>
       </c>
       <c r="G85" t="n">
-        <v>272</v>
+        <v>6149.195818320005</v>
       </c>
       <c r="H85" t="n">
-        <v>272.75</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,33 +3870,30 @@
         <v>273</v>
       </c>
       <c r="C86" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D86" t="n">
         <v>273</v>
       </c>
       <c r="E86" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F86" t="n">
-        <v>178.6324</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>271.8666666666667</v>
+        <v>6149.195818320005</v>
       </c>
       <c r="H86" t="n">
-        <v>272.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,36 +3902,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C87" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D87" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E87" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F87" t="n">
-        <v>294.6739</v>
+        <v>1.989</v>
       </c>
       <c r="G87" t="n">
-        <v>272</v>
+        <v>6151.184818320005</v>
       </c>
       <c r="H87" t="n">
-        <v>272.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,36 +3937,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C88" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D88" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E88" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F88" t="n">
-        <v>170.01</v>
+        <v>540.532</v>
       </c>
       <c r="G88" t="n">
-        <v>272</v>
+        <v>5610.652818320004</v>
       </c>
       <c r="H88" t="n">
-        <v>272.6</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,36 +3972,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C89" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D89" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E89" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F89" t="n">
-        <v>179.01</v>
+        <v>12836.5799</v>
       </c>
       <c r="G89" t="n">
-        <v>272.3333333333333</v>
+        <v>-7225.927081679996</v>
       </c>
       <c r="H89" t="n">
-        <v>272.5</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,36 +4007,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C90" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D90" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E90" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F90" t="n">
-        <v>1679</v>
+        <v>2500</v>
       </c>
       <c r="G90" t="n">
-        <v>272.4</v>
+        <v>-7225.927081679996</v>
       </c>
       <c r="H90" t="n">
-        <v>272.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,36 +4042,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C91" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D91" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E91" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F91" t="n">
-        <v>3871.6355</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>272.4666666666666</v>
+        <v>-7224.927081679996</v>
       </c>
       <c r="H91" t="n">
-        <v>272.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,36 +4077,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C92" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D92" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E92" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F92" t="n">
-        <v>2181.2454</v>
+        <v>848.2972</v>
       </c>
       <c r="G92" t="n">
-        <v>272.7333333333333</v>
+        <v>-7224.927081679996</v>
       </c>
       <c r="H92" t="n">
-        <v>272.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,36 +4112,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C93" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D93" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E93" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F93" t="n">
-        <v>18.9456</v>
+        <v>3654.1956</v>
       </c>
       <c r="G93" t="n">
-        <v>272.9333333333333</v>
+        <v>-10879.12268168</v>
       </c>
       <c r="H93" t="n">
-        <v>272.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,36 +4147,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C94" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D94" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E94" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F94" t="n">
-        <v>172.8675</v>
+        <v>895.522</v>
       </c>
       <c r="G94" t="n">
-        <v>273.2</v>
+        <v>-9983.600681679996</v>
       </c>
       <c r="H94" t="n">
-        <v>272.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,36 +4182,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C95" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D95" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E95" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F95" t="n">
-        <v>343.7862</v>
+        <v>10095.4642</v>
       </c>
       <c r="G95" t="n">
-        <v>273.4666666666666</v>
+        <v>-20079.06488167999</v>
       </c>
       <c r="H95" t="n">
-        <v>272.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,36 +4217,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C96" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E96" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F96" t="n">
-        <v>119</v>
+        <v>3.9633</v>
       </c>
       <c r="G96" t="n">
-        <v>273.6</v>
+        <v>-20075.10158168</v>
       </c>
       <c r="H96" t="n">
-        <v>272.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,36 +4252,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C97" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D97" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E97" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F97" t="n">
-        <v>593.4172</v>
+        <v>7946.4854</v>
       </c>
       <c r="G97" t="n">
-        <v>273.8</v>
+        <v>-28021.58698168</v>
       </c>
       <c r="H97" t="n">
-        <v>272.6</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,36 +4287,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C98" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D98" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E98" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>274.0666666666667</v>
+        <v>-28011.58698168</v>
       </c>
       <c r="H98" t="n">
-        <v>272.6</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,36 +4322,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C99" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D99" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E99" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F99" t="n">
-        <v>6200.5869</v>
+        <v>1800</v>
       </c>
       <c r="G99" t="n">
-        <v>274.2</v>
+        <v>-29811.58698168</v>
       </c>
       <c r="H99" t="n">
-        <v>272.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,36 +4357,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C100" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E100" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F100" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>274.2</v>
+        <v>-29810.58698168</v>
       </c>
       <c r="H100" t="n">
-        <v>272.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,36 +4392,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C101" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D101" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E101" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>903.486</v>
       </c>
       <c r="G101" t="n">
-        <v>274.5333333333334</v>
+        <v>-30714.07298168</v>
       </c>
       <c r="H101" t="n">
-        <v>272.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,36 +4427,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C102" t="n">
         <v>271</v>
       </c>
       <c r="D102" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E102" t="n">
         <v>271</v>
       </c>
       <c r="F102" t="n">
-        <v>1173.9343</v>
+        <v>113</v>
       </c>
       <c r="G102" t="n">
-        <v>274.4</v>
+        <v>-30714.07298168</v>
       </c>
       <c r="H102" t="n">
-        <v>272.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,36 +4462,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C103" t="n">
+        <v>268</v>
+      </c>
+      <c r="D103" t="n">
         <v>269</v>
       </c>
-      <c r="D103" t="n">
-        <v>273</v>
-      </c>
       <c r="E103" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F103" t="n">
-        <v>2200</v>
+        <v>2501.0468</v>
       </c>
       <c r="G103" t="n">
-        <v>274.2666666666667</v>
+        <v>-33215.11978168</v>
       </c>
       <c r="H103" t="n">
-        <v>272.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,36 +4497,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C104" t="n">
         <v>273</v>
       </c>
       <c r="D104" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E104" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F104" t="n">
-        <v>1839.1613</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>274.2666666666667</v>
+        <v>-33205.11978168</v>
       </c>
       <c r="H104" t="n">
-        <v>272.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4380,24 +4544,21 @@
         <v>273</v>
       </c>
       <c r="F105" t="n">
-        <v>138</v>
+        <v>22.1135</v>
       </c>
       <c r="G105" t="n">
-        <v>274.2</v>
+        <v>-33205.11978168</v>
       </c>
       <c r="H105" t="n">
-        <v>272.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,36 +4567,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C106" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D106" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E106" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>2009.1851</v>
       </c>
       <c r="G106" t="n">
-        <v>274.4</v>
+        <v>-35214.30488168</v>
       </c>
       <c r="H106" t="n">
-        <v>272.65</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,36 +4602,1048 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C107" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D107" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E107" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F107" t="n">
-        <v>5311.0035</v>
+        <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>274.4</v>
+        <v>-35204.30488168</v>
       </c>
       <c r="H107" t="n">
-        <v>272.65</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>270</v>
+      </c>
+      <c r="C108" t="n">
+        <v>270</v>
+      </c>
+      <c r="D108" t="n">
+        <v>270</v>
+      </c>
+      <c r="E108" t="n">
+        <v>270</v>
+      </c>
+      <c r="F108" t="n">
+        <v>26.3257</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-35230.63058168</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>272</v>
+      </c>
+      <c r="C109" t="n">
+        <v>272</v>
+      </c>
+      <c r="D109" t="n">
+        <v>272</v>
+      </c>
+      <c r="E109" t="n">
+        <v>272</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-35229.63058168</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>272</v>
+      </c>
+      <c r="C110" t="n">
+        <v>272</v>
+      </c>
+      <c r="D110" t="n">
+        <v>272</v>
+      </c>
+      <c r="E110" t="n">
+        <v>272</v>
+      </c>
+      <c r="F110" t="n">
+        <v>181</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-35229.63058168</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>273</v>
+      </c>
+      <c r="C111" t="n">
+        <v>273</v>
+      </c>
+      <c r="D111" t="n">
+        <v>273</v>
+      </c>
+      <c r="E111" t="n">
+        <v>273</v>
+      </c>
+      <c r="F111" t="n">
+        <v>140</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-35089.63058168</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>273</v>
+      </c>
+      <c r="C112" t="n">
+        <v>273</v>
+      </c>
+      <c r="D112" t="n">
+        <v>273</v>
+      </c>
+      <c r="E112" t="n">
+        <v>273</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.8588</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-35089.63058168</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>274</v>
+      </c>
+      <c r="C113" t="n">
+        <v>274</v>
+      </c>
+      <c r="D113" t="n">
+        <v>274</v>
+      </c>
+      <c r="E113" t="n">
+        <v>274</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-35088.63058168</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>274</v>
+      </c>
+      <c r="C114" t="n">
+        <v>274</v>
+      </c>
+      <c r="D114" t="n">
+        <v>274</v>
+      </c>
+      <c r="E114" t="n">
+        <v>274</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-35088.63058168</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>273</v>
+      </c>
+      <c r="C115" t="n">
+        <v>271</v>
+      </c>
+      <c r="D115" t="n">
+        <v>273</v>
+      </c>
+      <c r="E115" t="n">
+        <v>271</v>
+      </c>
+      <c r="F115" t="n">
+        <v>178.6324</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-35267.26298168</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>273</v>
+      </c>
+      <c r="C116" t="n">
+        <v>273</v>
+      </c>
+      <c r="D116" t="n">
+        <v>273</v>
+      </c>
+      <c r="E116" t="n">
+        <v>273</v>
+      </c>
+      <c r="F116" t="n">
+        <v>294.6739</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-34972.58908168</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>271</v>
+      </c>
+      <c r="C117" t="n">
+        <v>271</v>
+      </c>
+      <c r="D117" t="n">
+        <v>271</v>
+      </c>
+      <c r="E117" t="n">
+        <v>271</v>
+      </c>
+      <c r="F117" t="n">
+        <v>170.01</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-35142.59908168</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>273</v>
+      </c>
+      <c r="C118" t="n">
+        <v>273</v>
+      </c>
+      <c r="D118" t="n">
+        <v>273</v>
+      </c>
+      <c r="E118" t="n">
+        <v>273</v>
+      </c>
+      <c r="F118" t="n">
+        <v>179.01</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-34963.58908168</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>273</v>
+      </c>
+      <c r="C119" t="n">
+        <v>274</v>
+      </c>
+      <c r="D119" t="n">
+        <v>274</v>
+      </c>
+      <c r="E119" t="n">
+        <v>269</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1679</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-33284.58908168</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>274</v>
+      </c>
+      <c r="C120" t="n">
+        <v>274</v>
+      </c>
+      <c r="D120" t="n">
+        <v>274</v>
+      </c>
+      <c r="E120" t="n">
+        <v>274</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3871.6355</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-33284.58908168</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>274</v>
+      </c>
+      <c r="C121" t="n">
+        <v>274</v>
+      </c>
+      <c r="D121" t="n">
+        <v>274</v>
+      </c>
+      <c r="E121" t="n">
+        <v>274</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2181.2454</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-33284.58908168</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>276</v>
+      </c>
+      <c r="C122" t="n">
+        <v>276</v>
+      </c>
+      <c r="D122" t="n">
+        <v>276</v>
+      </c>
+      <c r="E122" t="n">
+        <v>276</v>
+      </c>
+      <c r="F122" t="n">
+        <v>18.9456</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-33265.64348168</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>274</v>
+      </c>
+      <c r="C123" t="n">
+        <v>274</v>
+      </c>
+      <c r="D123" t="n">
+        <v>274</v>
+      </c>
+      <c r="E123" t="n">
+        <v>274</v>
+      </c>
+      <c r="F123" t="n">
+        <v>172.8675</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-33438.51098168</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>276</v>
+      </c>
+      <c r="C124" t="n">
+        <v>276</v>
+      </c>
+      <c r="D124" t="n">
+        <v>276</v>
+      </c>
+      <c r="E124" t="n">
+        <v>276</v>
+      </c>
+      <c r="F124" t="n">
+        <v>343.7862</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-33094.72478168</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>274</v>
+      </c>
+      <c r="C125" t="n">
+        <v>274</v>
+      </c>
+      <c r="D125" t="n">
+        <v>274</v>
+      </c>
+      <c r="E125" t="n">
+        <v>274</v>
+      </c>
+      <c r="F125" t="n">
+        <v>119</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-33213.72478168</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>276</v>
+      </c>
+      <c r="C126" t="n">
+        <v>276</v>
+      </c>
+      <c r="D126" t="n">
+        <v>276</v>
+      </c>
+      <c r="E126" t="n">
+        <v>276</v>
+      </c>
+      <c r="F126" t="n">
+        <v>593.4172</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-32620.30758168</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>277</v>
+      </c>
+      <c r="C127" t="n">
+        <v>277</v>
+      </c>
+      <c r="D127" t="n">
+        <v>277</v>
+      </c>
+      <c r="E127" t="n">
+        <v>277</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-32619.30758168</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>276</v>
+      </c>
+      <c r="C128" t="n">
+        <v>276</v>
+      </c>
+      <c r="D128" t="n">
+        <v>276</v>
+      </c>
+      <c r="E128" t="n">
+        <v>276</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6200.5869</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-38819.89448168</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>274</v>
+      </c>
+      <c r="C129" t="n">
+        <v>274</v>
+      </c>
+      <c r="D129" t="n">
+        <v>274</v>
+      </c>
+      <c r="E129" t="n">
+        <v>274</v>
+      </c>
+      <c r="F129" t="n">
+        <v>120</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-38939.89448168</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>276</v>
+      </c>
+      <c r="C130" t="n">
+        <v>276</v>
+      </c>
+      <c r="D130" t="n">
+        <v>276</v>
+      </c>
+      <c r="E130" t="n">
+        <v>276</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-38938.89448168</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>272</v>
+      </c>
+      <c r="C131" t="n">
+        <v>271</v>
+      </c>
+      <c r="D131" t="n">
+        <v>272</v>
+      </c>
+      <c r="E131" t="n">
+        <v>271</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1173.9343</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-40112.82878168</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>273</v>
+      </c>
+      <c r="C132" t="n">
+        <v>269</v>
+      </c>
+      <c r="D132" t="n">
+        <v>273</v>
+      </c>
+      <c r="E132" t="n">
+        <v>269</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-42312.82878168</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>270</v>
+      </c>
+      <c r="C133" t="n">
+        <v>273</v>
+      </c>
+      <c r="D133" t="n">
+        <v>276</v>
+      </c>
+      <c r="E133" t="n">
+        <v>270</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1839.1613</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-40473.66748168</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>273</v>
+      </c>
+      <c r="C134" t="n">
+        <v>273</v>
+      </c>
+      <c r="D134" t="n">
+        <v>273</v>
+      </c>
+      <c r="E134" t="n">
+        <v>273</v>
+      </c>
+      <c r="F134" t="n">
+        <v>138</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-40473.66748168</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>277</v>
+      </c>
+      <c r="C135" t="n">
+        <v>277</v>
+      </c>
+      <c r="D135" t="n">
+        <v>277</v>
+      </c>
+      <c r="E135" t="n">
+        <v>277</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-40472.66748168</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>277</v>
+      </c>
+      <c r="C136" t="n">
+        <v>274</v>
+      </c>
+      <c r="D136" t="n">
+        <v>280</v>
+      </c>
+      <c r="E136" t="n">
+        <v>272</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5311.0035</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-45783.67098168</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-31 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>531.1018</v>
       </c>
       <c r="G2" t="n">
-        <v>-31117.42178512999</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>348</v>
       </c>
       <c r="G3" t="n">
-        <v>-31117.42178512999</v>
+        <v>266</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,7 +529,7 @@
         <v>332.5296</v>
       </c>
       <c r="G4" t="n">
-        <v>-31117.42178512999</v>
+        <v>266</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,7 +573,7 @@
         <v>3.8153</v>
       </c>
       <c r="G5" t="n">
-        <v>-31117.42178512999</v>
+        <v>266</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -587,6 +595,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-31118.42178512999</v>
+        <v>264.6666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -626,6 +635,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -647,7 +657,7 @@
         <v>400</v>
       </c>
       <c r="G7" t="n">
-        <v>-31118.42178512999</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -669,6 +679,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>-31108.42178512999</v>
+        <v>263.6666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -712,6 +723,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -733,7 +745,7 @@
         <v>170.1989</v>
       </c>
       <c r="G9" t="n">
-        <v>-31278.62068512999</v>
+        <v>264.3333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -751,6 +763,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -772,7 +785,7 @@
         <v>13652.2983</v>
       </c>
       <c r="G10" t="n">
-        <v>-17626.32238512999</v>
+        <v>266.3333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -794,6 +807,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -815,7 +829,7 @@
         <v>941.064</v>
       </c>
       <c r="G11" t="n">
-        <v>-16685.25838512999</v>
+        <v>267.3333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -837,6 +851,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,7 +873,7 @@
         <v>267.4433</v>
       </c>
       <c r="G12" t="n">
-        <v>-16952.70168512999</v>
+        <v>268.6666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -878,6 +893,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -899,7 +915,7 @@
         <v>3579.2562</v>
       </c>
       <c r="G13" t="n">
-        <v>-16952.70168512999</v>
+        <v>268.6666666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -919,6 +935,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,7 +957,7 @@
         <v>132.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>-16952.70168512999</v>
+        <v>268</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -960,6 +977,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -981,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>-16951.70168512999</v>
+        <v>269.6666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1001,6 +1019,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1022,7 +1041,7 @@
         <v>60</v>
       </c>
       <c r="G16" t="n">
-        <v>-16951.70168512999</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1042,6 +1061,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1063,7 +1083,7 @@
         <v>941.064</v>
       </c>
       <c r="G17" t="n">
-        <v>-17892.76568512999</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1083,6 +1103,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1104,7 +1125,7 @@
         <v>1131.8237</v>
       </c>
       <c r="G18" t="n">
-        <v>-17892.76568512999</v>
+        <v>269.6666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1124,6 +1145,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1145,7 +1167,7 @@
         <v>8616.818300000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-26509.58398512999</v>
+        <v>266.3333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1165,6 +1187,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1186,7 +1209,7 @@
         <v>357</v>
       </c>
       <c r="G20" t="n">
-        <v>-26152.58398512999</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1206,6 +1229,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1227,7 +1251,7 @@
         <v>1225.962</v>
       </c>
       <c r="G21" t="n">
-        <v>-27378.54598512999</v>
+        <v>264.6666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1247,6 +1271,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1268,7 +1293,7 @@
         <v>468</v>
       </c>
       <c r="G22" t="n">
-        <v>-26910.54598512999</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1288,6 +1313,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1309,7 +1335,7 @@
         <v>3.9029</v>
       </c>
       <c r="G23" t="n">
-        <v>-26914.44888512999</v>
+        <v>264.6666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1329,6 +1355,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1350,7 +1377,7 @@
         <v>7555.4081</v>
       </c>
       <c r="G24" t="n">
-        <v>-19359.04078512999</v>
+        <v>265</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1370,6 +1397,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1391,7 +1419,7 @@
         <v>1898.95</v>
       </c>
       <c r="G25" t="n">
-        <v>-19359.04078512999</v>
+        <v>265</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1413,6 +1441,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1434,7 +1463,7 @@
         <v>53.4817</v>
       </c>
       <c r="G26" t="n">
-        <v>-19412.52248512999</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1454,6 +1483,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1475,7 +1505,7 @@
         <v>1031.8838</v>
       </c>
       <c r="G27" t="n">
-        <v>-18380.63868512999</v>
+        <v>265.6666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1495,6 +1525,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1516,7 +1547,7 @@
         <v>1295.4677</v>
       </c>
       <c r="G28" t="n">
-        <v>-18380.63868512999</v>
+        <v>266</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1536,6 +1567,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1557,7 +1589,7 @@
         <v>1060.1011</v>
       </c>
       <c r="G29" t="n">
-        <v>-19440.73978512999</v>
+        <v>266.3333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1577,6 +1609,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1598,7 +1631,7 @@
         <v>2385.2275</v>
       </c>
       <c r="G30" t="n">
-        <v>-21825.96728512999</v>
+        <v>265.3333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1618,6 +1651,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1639,7 +1673,7 @@
         <v>930.451</v>
       </c>
       <c r="G31" t="n">
-        <v>-20895.51628512999</v>
+        <v>266</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1659,6 +1693,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1680,7 +1715,7 @@
         <v>268.5683</v>
       </c>
       <c r="G32" t="n">
-        <v>-20895.51628512999</v>
+        <v>267.3333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1700,6 +1735,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1721,7 +1757,7 @@
         <v>933.962</v>
       </c>
       <c r="G33" t="n">
-        <v>-19961.55428512999</v>
+        <v>269.3333333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1741,6 +1777,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1762,7 +1799,7 @@
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>-19861.55428512999</v>
+        <v>271</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1782,6 +1819,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1803,7 +1841,7 @@
         <v>7255.6827</v>
       </c>
       <c r="G35" t="n">
-        <v>-27117.23698512999</v>
+        <v>272.3333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1823,6 +1861,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1844,7 +1883,7 @@
         <v>221.9781</v>
       </c>
       <c r="G36" t="n">
-        <v>-27339.21508512999</v>
+        <v>272.6666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1864,6 +1903,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1885,7 +1925,7 @@
         <v>833.962</v>
       </c>
       <c r="G37" t="n">
-        <v>-28173.17708512999</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1905,6 +1945,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1926,7 +1967,7 @@
         <v>2.4908</v>
       </c>
       <c r="G38" t="n">
-        <v>-28170.68628512999</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1946,6 +1987,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1967,7 +2009,7 @@
         <v>187.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>-28358.68618512999</v>
+        <v>271</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1987,6 +2029,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2008,7 +2051,7 @@
         <v>115</v>
       </c>
       <c r="G40" t="n">
-        <v>-28358.68618512999</v>
+        <v>271</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2028,6 +2071,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2049,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>-28357.68618512999</v>
+        <v>270.6666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2069,6 +2113,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2090,7 +2135,7 @@
         <v>2409.7794</v>
       </c>
       <c r="G42" t="n">
-        <v>-28357.68618512999</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2110,6 +2155,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2131,7 +2177,7 @@
         <v>3546.7413</v>
       </c>
       <c r="G43" t="n">
-        <v>-31904.42748512999</v>
+        <v>270.6666666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2151,6 +2197,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2172,7 +2219,7 @@
         <v>210.9999</v>
       </c>
       <c r="G44" t="n">
-        <v>-31693.42758512999</v>
+        <v>270</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2192,6 +2239,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2213,7 +2261,7 @@
         <v>140</v>
       </c>
       <c r="G45" t="n">
-        <v>-31693.42758512999</v>
+        <v>269.3333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2233,6 +2281,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2254,7 +2303,7 @@
         <v>3.9705</v>
       </c>
       <c r="G46" t="n">
-        <v>-31689.45708512999</v>
+        <v>270.6666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2274,6 +2323,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2295,7 +2345,7 @@
         <v>733.3161</v>
       </c>
       <c r="G47" t="n">
-        <v>-31689.45708512999</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2315,6 +2365,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2336,7 +2387,7 @@
         <v>27793.78030345</v>
       </c>
       <c r="G48" t="n">
-        <v>-3895.676781679995</v>
+        <v>272.3333333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2356,6 +2407,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2377,7 +2429,7 @@
         <v>194.9743</v>
       </c>
       <c r="G49" t="n">
-        <v>-3700.702481679995</v>
+        <v>275.6666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2397,6 +2449,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2418,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>-3701.702481679995</v>
+        <v>276.3333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2438,6 +2491,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2459,7 +2513,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="n">
-        <v>-3668.702481679995</v>
+        <v>277.3333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2479,6 +2533,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2500,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>-3666.702481679995</v>
+        <v>276.3333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2520,6 +2575,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2541,7 +2597,7 @@
         <v>130.97</v>
       </c>
       <c r="G53" t="n">
-        <v>-3797.672481679995</v>
+        <v>276</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2561,6 +2617,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2582,7 +2639,7 @@
         <v>712.8908</v>
       </c>
       <c r="G54" t="n">
-        <v>-3797.672481679995</v>
+        <v>275</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2602,6 +2659,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2623,7 +2681,7 @@
         <v>1016.4972</v>
       </c>
       <c r="G55" t="n">
-        <v>-3797.672481679995</v>
+        <v>273</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2643,6 +2701,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2664,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>-3796.672481679995</v>
+        <v>274.6666666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2684,6 +2743,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2705,7 +2765,7 @@
         <v>40.2014</v>
       </c>
       <c r="G57" t="n">
-        <v>-3836.873881679995</v>
+        <v>274.6666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2725,6 +2785,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2746,7 +2807,7 @@
         <v>78.3</v>
       </c>
       <c r="G58" t="n">
-        <v>-3758.573881679994</v>
+        <v>276.6666666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2766,6 +2827,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2787,7 +2849,7 @@
         <v>3.2215</v>
       </c>
       <c r="G59" t="n">
-        <v>-3761.795381679995</v>
+        <v>276.6666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2807,6 +2869,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2828,7 +2891,7 @@
         <v>40</v>
       </c>
       <c r="G60" t="n">
-        <v>-3801.795381679995</v>
+        <v>276.3333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2848,6 +2911,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2869,7 +2933,7 @@
         <v>7966.4014</v>
       </c>
       <c r="G61" t="n">
-        <v>4164.606018320005</v>
+        <v>274.6666666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2889,6 +2953,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2910,7 +2975,7 @@
         <v>906.593</v>
       </c>
       <c r="G62" t="n">
-        <v>5071.199018320005</v>
+        <v>273.6666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2930,6 +2995,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2951,7 +3017,7 @@
         <v>3974.675</v>
       </c>
       <c r="G63" t="n">
-        <v>1096.524018320005</v>
+        <v>273.3333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2971,6 +3037,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2992,7 +3059,7 @@
         <v>906.593</v>
       </c>
       <c r="G64" t="n">
-        <v>2003.117018320005</v>
+        <v>273</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3012,6 +3079,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3033,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>2004.117018320005</v>
+        <v>273.6666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3053,6 +3121,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3074,7 +3143,7 @@
         <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>2003.117018320005</v>
+        <v>274</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3094,6 +3163,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3115,13 +3185,13 @@
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>2004.117018320005</v>
+        <v>275.3333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
@@ -3129,11 +3199,14 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>1.032453183520599</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.019083969465649</v>
       </c>
     </row>
     <row r="68">
@@ -3156,26 +3229,21 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>2003.117018320005</v>
+        <v>273.6666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>267</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3197,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>2004.117018320005</v>
+        <v>275.3333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3206,17 +3274,12 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>267</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3238,26 +3301,21 @@
         <v>898.148</v>
       </c>
       <c r="G70" t="n">
-        <v>1105.969018320005</v>
+        <v>275</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>267</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3279,26 +3337,21 @@
         <v>4834.7752</v>
       </c>
       <c r="G71" t="n">
-        <v>-3728.806181679995</v>
+        <v>274.3333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>267</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3320,7 +3373,7 @@
         <v>10562.1167</v>
       </c>
       <c r="G72" t="n">
-        <v>6833.310518320005</v>
+        <v>273</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3329,17 +3382,12 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>267</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3361,7 +3409,7 @@
         <v>5740.5798</v>
       </c>
       <c r="G73" t="n">
-        <v>6833.310518320005</v>
+        <v>272</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3370,17 +3418,12 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>267</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3402,7 +3445,7 @@
         <v>2884</v>
       </c>
       <c r="G74" t="n">
-        <v>3949.310518320005</v>
+        <v>272.6666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3411,17 +3454,12 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>267</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3443,7 +3481,7 @@
         <v>51.9</v>
       </c>
       <c r="G75" t="n">
-        <v>4001.210518320005</v>
+        <v>272.6666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3452,17 +3490,12 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>267</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3484,7 +3517,7 @@
         <v>2010.51</v>
       </c>
       <c r="G76" t="n">
-        <v>6011.720518320005</v>
+        <v>273</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3493,17 +3526,12 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>267</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3525,7 +3553,7 @@
         <v>39.6163</v>
       </c>
       <c r="G77" t="n">
-        <v>5972.104218320005</v>
+        <v>273.3333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3534,17 +3562,12 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>267</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3566,7 +3589,7 @@
         <v>2800.9999</v>
       </c>
       <c r="G78" t="n">
-        <v>5972.104218320005</v>
+        <v>273.3333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3575,17 +3598,12 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>267</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3607,7 +3625,7 @@
         <v>2640.2227</v>
       </c>
       <c r="G79" t="n">
-        <v>5972.104218320005</v>
+        <v>273</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3616,17 +3634,12 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>267</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3648,7 +3661,7 @@
         <v>554.968</v>
       </c>
       <c r="G80" t="n">
-        <v>5972.104218320005</v>
+        <v>273</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3657,17 +3670,12 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>267</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3689,26 +3697,21 @@
         <v>400</v>
       </c>
       <c r="G81" t="n">
-        <v>5972.104218320005</v>
+        <v>273</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>267</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3730,26 +3733,21 @@
         <v>1094.6936</v>
       </c>
       <c r="G82" t="n">
-        <v>7066.797818320005</v>
+        <v>273.3333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>267</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3771,7 +3769,7 @@
         <v>2339.6459</v>
       </c>
       <c r="G83" t="n">
-        <v>7066.797818320005</v>
+        <v>273.6666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3780,17 +3778,12 @@
         <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>267</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1.02121722846442</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3812,7 +3805,7 @@
         <v>189.7466</v>
       </c>
       <c r="G84" t="n">
-        <v>7066.797818320005</v>
+        <v>274</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3826,6 +3819,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3847,7 +3841,7 @@
         <v>917.602</v>
       </c>
       <c r="G85" t="n">
-        <v>6149.195818320005</v>
+        <v>273.6666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3861,6 +3855,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3882,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>6149.195818320005</v>
+        <v>273.3333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3896,6 +3891,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3917,7 +3913,7 @@
         <v>1.989</v>
       </c>
       <c r="G87" t="n">
-        <v>6151.184818320005</v>
+        <v>273.3333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3931,6 +3927,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3952,7 +3949,7 @@
         <v>540.532</v>
       </c>
       <c r="G88" t="n">
-        <v>5610.652818320004</v>
+        <v>273</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3966,6 +3963,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3987,7 +3985,7 @@
         <v>12836.5799</v>
       </c>
       <c r="G89" t="n">
-        <v>-7225.927081679996</v>
+        <v>272.3333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4001,6 +3999,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4022,7 +4021,7 @@
         <v>2500</v>
       </c>
       <c r="G90" t="n">
-        <v>-7225.927081679996</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4036,6 +4035,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4057,13 +4057,13 @@
         <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>-7224.927081679996</v>
+        <v>271.6666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -4071,6 +4071,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4092,13 +4093,13 @@
         <v>848.2972</v>
       </c>
       <c r="G92" t="n">
-        <v>-7224.927081679996</v>
+        <v>272.3333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -4106,6 +4107,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4127,7 +4129,7 @@
         <v>3654.1956</v>
       </c>
       <c r="G93" t="n">
-        <v>-10879.12268168</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4141,6 +4143,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4162,7 +4165,7 @@
         <v>895.522</v>
       </c>
       <c r="G94" t="n">
-        <v>-9983.600681679996</v>
+        <v>270.3333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4176,6 +4179,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4197,7 +4201,7 @@
         <v>10095.4642</v>
       </c>
       <c r="G95" t="n">
-        <v>-20079.06488167999</v>
+        <v>268.6666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4211,6 +4215,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4232,7 +4237,7 @@
         <v>3.9633</v>
       </c>
       <c r="G96" t="n">
-        <v>-20075.10158168</v>
+        <v>270.3333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4246,6 +4251,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4267,7 +4273,7 @@
         <v>7946.4854</v>
       </c>
       <c r="G97" t="n">
-        <v>-28021.58698168</v>
+        <v>269</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4281,6 +4287,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4302,7 +4309,7 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-28011.58698168</v>
+        <v>270.6666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4316,6 +4323,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4337,7 +4345,7 @@
         <v>1800</v>
       </c>
       <c r="G99" t="n">
-        <v>-29811.58698168</v>
+        <v>269</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4351,6 +4359,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4372,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-29810.58698168</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4386,6 +4395,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4407,7 +4417,7 @@
         <v>903.486</v>
       </c>
       <c r="G101" t="n">
-        <v>-30714.07298168</v>
+        <v>270.6666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4421,6 +4431,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4442,13 +4453,13 @@
         <v>113</v>
       </c>
       <c r="G102" t="n">
-        <v>-30714.07298168</v>
+        <v>271.6666666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4456,6 +4467,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4477,7 +4489,7 @@
         <v>2501.0468</v>
       </c>
       <c r="G103" t="n">
-        <v>-33215.11978168</v>
+        <v>270</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4491,6 +4503,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4512,7 +4525,7 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>-33205.11978168</v>
+        <v>270.6666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4526,6 +4539,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4547,7 +4561,7 @@
         <v>22.1135</v>
       </c>
       <c r="G105" t="n">
-        <v>-33205.11978168</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4561,6 +4575,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4582,13 +4597,13 @@
         <v>2009.1851</v>
       </c>
       <c r="G106" t="n">
-        <v>-35214.30488168</v>
+        <v>272</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4596,6 +4611,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4617,7 +4633,7 @@
         <v>10</v>
       </c>
       <c r="G107" t="n">
-        <v>-35204.30488168</v>
+        <v>272</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4631,6 +4647,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4652,7 +4669,7 @@
         <v>26.3257</v>
       </c>
       <c r="G108" t="n">
-        <v>-35230.63058168</v>
+        <v>271</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4666,6 +4683,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4687,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>-35229.63058168</v>
+        <v>271.6666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4701,6 +4719,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4722,7 +4741,7 @@
         <v>181</v>
       </c>
       <c r="G110" t="n">
-        <v>-35229.63058168</v>
+        <v>271.3333333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4736,6 +4755,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4757,7 +4777,7 @@
         <v>140</v>
       </c>
       <c r="G111" t="n">
-        <v>-35089.63058168</v>
+        <v>272.3333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4771,6 +4791,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4792,7 +4813,7 @@
         <v>0.8588</v>
       </c>
       <c r="G112" t="n">
-        <v>-35089.63058168</v>
+        <v>272.6666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4806,6 +4827,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4827,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>-35088.63058168</v>
+        <v>273.3333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4841,6 +4863,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4862,7 +4885,7 @@
         <v>3000</v>
       </c>
       <c r="G114" t="n">
-        <v>-35088.63058168</v>
+        <v>273.6666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4876,6 +4899,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4897,7 +4921,7 @@
         <v>178.6324</v>
       </c>
       <c r="G115" t="n">
-        <v>-35267.26298168</v>
+        <v>273</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4911,6 +4935,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4932,7 +4957,7 @@
         <v>294.6739</v>
       </c>
       <c r="G116" t="n">
-        <v>-34972.58908168</v>
+        <v>272.6666666666667</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4946,6 +4971,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4967,7 +4993,7 @@
         <v>170.01</v>
       </c>
       <c r="G117" t="n">
-        <v>-35142.59908168</v>
+        <v>271.6666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4981,6 +5007,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5002,7 +5029,7 @@
         <v>179.01</v>
       </c>
       <c r="G118" t="n">
-        <v>-34963.58908168</v>
+        <v>272.3333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5016,6 +5043,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5037,13 +5065,13 @@
         <v>1679</v>
       </c>
       <c r="G119" t="n">
-        <v>-33284.58908168</v>
+        <v>272.6666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5051,6 +5079,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5072,13 +5101,13 @@
         <v>3871.6355</v>
       </c>
       <c r="G120" t="n">
-        <v>-33284.58908168</v>
+        <v>273.6666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5086,6 +5115,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5107,13 +5137,13 @@
         <v>2181.2454</v>
       </c>
       <c r="G121" t="n">
-        <v>-33284.58908168</v>
+        <v>274</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5121,6 +5151,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5142,7 +5173,7 @@
         <v>18.9456</v>
       </c>
       <c r="G122" t="n">
-        <v>-33265.64348168</v>
+        <v>274.6666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5156,6 +5187,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5177,7 +5209,7 @@
         <v>172.8675</v>
       </c>
       <c r="G123" t="n">
-        <v>-33438.51098168</v>
+        <v>274.6666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5191,6 +5223,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5212,13 +5245,13 @@
         <v>343.7862</v>
       </c>
       <c r="G124" t="n">
-        <v>-33094.72478168</v>
+        <v>275.3333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5226,6 +5259,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5247,7 +5281,7 @@
         <v>119</v>
       </c>
       <c r="G125" t="n">
-        <v>-33213.72478168</v>
+        <v>274.6666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5261,6 +5295,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5282,13 +5317,13 @@
         <v>593.4172</v>
       </c>
       <c r="G126" t="n">
-        <v>-32620.30758168</v>
+        <v>275.3333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5296,6 +5331,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5317,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>-32619.30758168</v>
+        <v>275.6666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5331,6 +5367,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5352,7 +5389,7 @@
         <v>6200.5869</v>
       </c>
       <c r="G128" t="n">
-        <v>-38819.89448168</v>
+        <v>276.3333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5366,6 +5403,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5387,7 +5425,7 @@
         <v>120</v>
       </c>
       <c r="G129" t="n">
-        <v>-38939.89448168</v>
+        <v>275.6666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5401,6 +5439,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5422,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>-38938.89448168</v>
+        <v>275.3333333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5436,6 +5475,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5457,7 +5497,7 @@
         <v>1173.9343</v>
       </c>
       <c r="G131" t="n">
-        <v>-40112.82878168</v>
+        <v>273.6666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5471,6 +5511,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5492,13 +5533,13 @@
         <v>2200</v>
       </c>
       <c r="G132" t="n">
-        <v>-42312.82878168</v>
+        <v>272</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5506,6 +5547,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5527,7 +5569,7 @@
         <v>1839.1613</v>
       </c>
       <c r="G133" t="n">
-        <v>-40473.66748168</v>
+        <v>271</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5541,6 +5583,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5562,13 +5605,13 @@
         <v>138</v>
       </c>
       <c r="G134" t="n">
-        <v>-40473.66748168</v>
+        <v>271.6666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5576,6 +5619,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5597,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>-40472.66748168</v>
+        <v>274.3333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5611,6 +5655,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5632,13 +5677,13 @@
         <v>5311.0035</v>
       </c>
       <c r="G136" t="n">
-        <v>-45783.67098168</v>
+        <v>274.6666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5646,6 +5691,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-31 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-31 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C2" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D2" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E2" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F2" t="n">
-        <v>531.1018</v>
+        <v>1353.235</v>
       </c>
       <c r="G2" t="n">
-        <v>265.6666666666667</v>
+        <v>-26224.97849999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C3" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D3" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E3" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F3" t="n">
-        <v>348</v>
+        <v>1.5678</v>
       </c>
       <c r="G3" t="n">
-        <v>266</v>
+        <v>-26226.54629999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>266</v>
-      </c>
-      <c r="K3" t="n">
-        <v>266</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C4" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D4" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E4" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F4" t="n">
-        <v>332.5296</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>266</v>
+        <v>-26224.54629999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>266</v>
-      </c>
-      <c r="K4" t="n">
-        <v>266</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C5" t="n">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="D5" t="n">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E5" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F5" t="n">
-        <v>3.8153</v>
+        <v>5104.33811487</v>
       </c>
       <c r="G5" t="n">
-        <v>266</v>
+        <v>-21120.20818512999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>266</v>
-      </c>
-      <c r="K5" t="n">
-        <v>266</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C6" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D6" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E6" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4837.1789</v>
       </c>
       <c r="G6" t="n">
-        <v>264.6666666666667</v>
+        <v>-25957.38708512999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>266</v>
-      </c>
-      <c r="K6" t="n">
-        <v>266</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -642,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C7" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D7" t="n">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E7" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F7" t="n">
-        <v>400</v>
+        <v>5814.3103</v>
       </c>
       <c r="G7" t="n">
-        <v>263.3333333333333</v>
+        <v>-25957.38708512999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>262</v>
-      </c>
-      <c r="K7" t="n">
-        <v>266</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -686,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C8" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D8" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E8" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>1289.4203</v>
       </c>
       <c r="G8" t="n">
-        <v>263.6666666666667</v>
+        <v>-25957.38708512999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>262</v>
-      </c>
-      <c r="K8" t="n">
-        <v>266</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,35 +690,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C9" t="n">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D9" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E9" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F9" t="n">
-        <v>170.1989</v>
+        <v>5044.619</v>
       </c>
       <c r="G9" t="n">
-        <v>264.3333333333333</v>
+        <v>-20912.76808512999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>267</v>
-      </c>
-      <c r="K9" t="n">
-        <v>267</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -770,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C10" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D10" t="n">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E10" t="n">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="F10" t="n">
-        <v>13652.2983</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>266.3333333333333</v>
+        <v>-20911.76808512999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>264</v>
-      </c>
-      <c r="K10" t="n">
-        <v>267</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -814,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C11" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D11" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E11" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F11" t="n">
-        <v>941.064</v>
+        <v>1284.6605</v>
       </c>
       <c r="G11" t="n">
-        <v>267.3333333333333</v>
+        <v>-22196.42858512999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>268</v>
-      </c>
-      <c r="K11" t="n">
-        <v>267</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -858,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>270</v>
+      </c>
+      <c r="C12" t="n">
         <v>269</v>
       </c>
-      <c r="C12" t="n">
-        <v>268</v>
-      </c>
       <c r="D12" t="n">
+        <v>270</v>
+      </c>
+      <c r="E12" t="n">
         <v>269</v>
       </c>
-      <c r="E12" t="n">
-        <v>268</v>
-      </c>
       <c r="F12" t="n">
-        <v>267.4433</v>
+        <v>3138.0561</v>
       </c>
       <c r="G12" t="n">
-        <v>268.6666666666667</v>
+        <v>-25334.48468513</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -882,14 +822,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>267</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -900,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C13" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D13" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E13" t="n">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F13" t="n">
-        <v>3579.2562</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>268.6666666666667</v>
+        <v>-25324.48468513</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -924,14 +858,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>267</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -945,19 +873,19 @@
         <v>268</v>
       </c>
       <c r="C14" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D14" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E14" t="n">
         <v>268</v>
       </c>
       <c r="F14" t="n">
-        <v>132.9999</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>268</v>
+        <v>-25326.48468513</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -966,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>267</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C15" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D15" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E15" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>269.6666666666667</v>
+        <v>-25327.48468513</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1008,14 +930,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>267</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1026,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C16" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D16" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>6319.8448</v>
       </c>
       <c r="G16" t="n">
-        <v>271.3333333333333</v>
+        <v>-19007.63988513</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1050,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>267</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1068,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C17" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E17" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F17" t="n">
-        <v>941.064</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>271.3333333333333</v>
+        <v>-19009.63988513</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1092,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>267</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1110,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C18" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D18" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F18" t="n">
-        <v>1131.8237</v>
+        <v>2288.8762</v>
       </c>
       <c r="G18" t="n">
-        <v>269.6666666666667</v>
+        <v>-21298.51608513</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1134,14 +1038,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>267</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1152,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C19" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D19" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E19" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F19" t="n">
-        <v>8616.818300000001</v>
+        <v>1174.318</v>
       </c>
       <c r="G19" t="n">
-        <v>266.3333333333333</v>
+        <v>-21298.51608513</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1176,14 +1074,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>267</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C20" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D20" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E20" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F20" t="n">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>265.6666666666667</v>
+        <v>-21297.51608513</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1218,14 +1110,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>267</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1236,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>267</v>
+      </c>
+      <c r="C21" t="n">
         <v>266</v>
       </c>
-      <c r="C21" t="n">
-        <v>265</v>
-      </c>
       <c r="D21" t="n">
+        <v>267</v>
+      </c>
+      <c r="E21" t="n">
         <v>266</v>
       </c>
-      <c r="E21" t="n">
-        <v>265</v>
-      </c>
       <c r="F21" t="n">
-        <v>1225.962</v>
+        <v>2970.7303</v>
       </c>
       <c r="G21" t="n">
-        <v>264.6666666666667</v>
+        <v>-24268.24638512999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1260,14 +1146,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>267</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1278,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C22" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D22" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E22" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F22" t="n">
-        <v>468</v>
+        <v>170.6254</v>
       </c>
       <c r="G22" t="n">
-        <v>265.6666666666667</v>
+        <v>-24097.62098512999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1302,14 +1182,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>267</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1320,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C23" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D23" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="E23" t="n">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F23" t="n">
-        <v>3.9029</v>
+        <v>3867.0827</v>
       </c>
       <c r="G23" t="n">
-        <v>264.6666666666667</v>
+        <v>-20230.53828512999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1344,14 +1218,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>267</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1362,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C24" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D24" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E24" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F24" t="n">
-        <v>7555.4081</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>265</v>
+        <v>-20231.53828512999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1386,14 +1254,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>267</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1404,40 +1266,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C25" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D25" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E25" t="n">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F25" t="n">
-        <v>1898.95</v>
+        <v>3.9126</v>
       </c>
       <c r="G25" t="n">
-        <v>265</v>
+        <v>-20231.53828512999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>266</v>
-      </c>
-      <c r="K25" t="n">
-        <v>267</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C26" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D26" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E26" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F26" t="n">
-        <v>53.4817</v>
+        <v>4415.6993</v>
       </c>
       <c r="G26" t="n">
-        <v>265.3333333333333</v>
+        <v>-24647.23758512999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1472,14 +1326,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>267</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1490,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D27" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E27" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F27" t="n">
-        <v>1031.8838</v>
+        <v>4550.7595</v>
       </c>
       <c r="G27" t="n">
-        <v>265.6666666666667</v>
+        <v>-24647.23758512999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1514,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>267</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1532,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C28" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D28" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E28" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F28" t="n">
-        <v>1295.4677</v>
+        <v>7623.3604</v>
       </c>
       <c r="G28" t="n">
-        <v>266</v>
+        <v>-32270.59798512999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1556,14 +1398,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>267</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1586,26 +1422,24 @@
         <v>265</v>
       </c>
       <c r="F29" t="n">
-        <v>1060.1011</v>
+        <v>576.5882</v>
       </c>
       <c r="G29" t="n">
-        <v>266.3333333333333</v>
+        <v>-31694.00978512999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>263</v>
+      </c>
       <c r="K29" t="n">
-        <v>267</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1616,36 +1450,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C30" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D30" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E30" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F30" t="n">
-        <v>2385.2275</v>
+        <v>576.588</v>
       </c>
       <c r="G30" t="n">
-        <v>265.3333333333333</v>
+        <v>-31117.42178512999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>265</v>
+      </c>
       <c r="K30" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1658,36 +1494,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C31" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D31" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E31" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F31" t="n">
-        <v>930.451</v>
+        <v>531.1018</v>
       </c>
       <c r="G31" t="n">
+        <v>-31117.42178512999</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>266</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
@@ -1700,38 +1538,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C32" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D32" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E32" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F32" t="n">
-        <v>268.5683</v>
+        <v>348</v>
       </c>
       <c r="G32" t="n">
-        <v>267.3333333333333</v>
+        <v>-31117.42178512999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>266</v>
+      </c>
       <c r="K32" t="n">
-        <v>267</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1742,22 +1578,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C33" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D33" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E33" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F33" t="n">
-        <v>933.962</v>
+        <v>332.5296</v>
       </c>
       <c r="G33" t="n">
-        <v>269.3333333333333</v>
+        <v>-31117.42178512999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1767,11 +1603,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
@@ -1784,36 +1620,38 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C34" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D34" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E34" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>3.8153</v>
       </c>
       <c r="G34" t="n">
-        <v>271</v>
+        <v>-31117.42178512999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>266</v>
+      </c>
       <c r="K34" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -1826,38 +1664,36 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C35" t="n">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D35" t="n">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E35" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F35" t="n">
-        <v>7255.6827</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>272.3333333333333</v>
+        <v>-31118.42178512999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>266</v>
+      </c>
       <c r="K35" t="n">
-        <v>267</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1868,36 +1704,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C36" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D36" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E36" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F36" t="n">
-        <v>221.9781</v>
+        <v>400</v>
       </c>
       <c r="G36" t="n">
-        <v>272.6666666666667</v>
+        <v>-31118.42178512999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>262</v>
+      </c>
       <c r="K36" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M36" t="n">
@@ -1910,36 +1748,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C37" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D37" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E37" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F37" t="n">
-        <v>833.962</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>271.3333333333333</v>
+        <v>-31108.42178512999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>262</v>
+      </c>
       <c r="K37" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1952,38 +1792,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C38" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D38" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E38" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F38" t="n">
-        <v>2.4908</v>
+        <v>170.1989</v>
       </c>
       <c r="G38" t="n">
-        <v>271.3333333333333</v>
+        <v>-31278.62068512999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>267</v>
+      </c>
       <c r="K38" t="n">
         <v>267</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1994,36 +1832,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D39" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F39" t="n">
-        <v>187.9999</v>
+        <v>13652.2983</v>
       </c>
       <c r="G39" t="n">
-        <v>271</v>
+        <v>-17626.32238512999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>264</v>
+      </c>
       <c r="K39" t="n">
         <v>267</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -2048,18 +1888,20 @@
         <v>270</v>
       </c>
       <c r="F40" t="n">
-        <v>115</v>
+        <v>941.064</v>
       </c>
       <c r="G40" t="n">
-        <v>271</v>
+        <v>-16685.25838512999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>268</v>
+      </c>
       <c r="K40" t="n">
         <v>267</v>
       </c>
@@ -2078,22 +1920,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C41" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D41" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E41" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>267.4433</v>
       </c>
       <c r="G41" t="n">
-        <v>270.6666666666667</v>
+        <v>-16952.70168512999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2120,22 +1962,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C42" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D42" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E42" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F42" t="n">
-        <v>2409.7794</v>
+        <v>3579.2562</v>
       </c>
       <c r="G42" t="n">
-        <v>271.3333333333333</v>
+        <v>-16952.70168512999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2174,10 +2016,10 @@
         <v>268</v>
       </c>
       <c r="F43" t="n">
-        <v>3546.7413</v>
+        <v>132.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>270.6666666666667</v>
+        <v>-16952.70168512999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2204,22 +2046,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C44" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D44" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E44" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F44" t="n">
-        <v>210.9999</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>270</v>
+        <v>-16951.70168512999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2246,22 +2088,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C45" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D45" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E45" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F45" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="G45" t="n">
-        <v>269.3333333333333</v>
+        <v>-16951.70168512999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2288,22 +2130,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C46" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D46" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E46" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F46" t="n">
-        <v>3.9705</v>
+        <v>941.064</v>
       </c>
       <c r="G46" t="n">
-        <v>270.6666666666667</v>
+        <v>-17892.76568512999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2330,22 +2172,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C47" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D47" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E47" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F47" t="n">
-        <v>733.3161</v>
+        <v>1131.8237</v>
       </c>
       <c r="G47" t="n">
-        <v>271.3333333333333</v>
+        <v>-17892.76568512999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2372,22 +2214,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C48" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D48" t="n">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="E48" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F48" t="n">
-        <v>27793.78030345</v>
+        <v>8616.818300000001</v>
       </c>
       <c r="G48" t="n">
-        <v>272.3333333333333</v>
+        <v>-26509.58398512999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2414,22 +2256,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C49" t="n">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D49" t="n">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E49" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F49" t="n">
-        <v>194.9743</v>
+        <v>357</v>
       </c>
       <c r="G49" t="n">
-        <v>275.6666666666667</v>
+        <v>-26152.58398512999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2456,22 +2298,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C50" t="n">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D50" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E50" t="n">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>1225.962</v>
       </c>
       <c r="G50" t="n">
-        <v>276.3333333333333</v>
+        <v>-27378.54598512999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2498,22 +2340,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C51" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D51" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E51" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F51" t="n">
-        <v>33</v>
+        <v>468</v>
       </c>
       <c r="G51" t="n">
-        <v>277.3333333333333</v>
+        <v>-26910.54598512999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2540,22 +2382,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C52" t="n">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D52" t="n">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E52" t="n">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>3.9029</v>
       </c>
       <c r="G52" t="n">
-        <v>276.3333333333333</v>
+        <v>-26914.44888512999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2582,22 +2424,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C53" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D53" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E53" t="n">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F53" t="n">
-        <v>130.97</v>
+        <v>7555.4081</v>
       </c>
       <c r="G53" t="n">
-        <v>276</v>
+        <v>-19359.04078512999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2624,22 +2466,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C54" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D54" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E54" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F54" t="n">
-        <v>712.8908</v>
+        <v>1898.95</v>
       </c>
       <c r="G54" t="n">
-        <v>275</v>
+        <v>-19359.04078512999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2666,22 +2508,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C55" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D55" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E55" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F55" t="n">
-        <v>1016.4972</v>
+        <v>53.4817</v>
       </c>
       <c r="G55" t="n">
-        <v>273</v>
+        <v>-19412.52248512999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2708,22 +2550,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C56" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D56" t="n">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E56" t="n">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>1031.8838</v>
       </c>
       <c r="G56" t="n">
-        <v>274.6666666666667</v>
+        <v>-18380.63868512999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2750,22 +2592,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C57" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D57" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E57" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F57" t="n">
-        <v>40.2014</v>
+        <v>1295.4677</v>
       </c>
       <c r="G57" t="n">
-        <v>274.6666666666667</v>
+        <v>-18380.63868512999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2792,22 +2634,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C58" t="n">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D58" t="n">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E58" t="n">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F58" t="n">
-        <v>78.3</v>
+        <v>1060.1011</v>
       </c>
       <c r="G58" t="n">
-        <v>276.6666666666667</v>
+        <v>-19440.73978512999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2834,22 +2676,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C59" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D59" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E59" t="n">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="F59" t="n">
-        <v>3.2215</v>
+        <v>2385.2275</v>
       </c>
       <c r="G59" t="n">
-        <v>276.6666666666667</v>
+        <v>-21825.96728512999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2876,30 +2718,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C60" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D60" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E60" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F60" t="n">
-        <v>40</v>
+        <v>930.451</v>
       </c>
       <c r="G60" t="n">
-        <v>276.3333333333333</v>
+        <v>-20895.51628512999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
       <c r="K60" t="n">
         <v>267</v>
       </c>
@@ -2918,22 +2762,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C61" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D61" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E61" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F61" t="n">
-        <v>7966.4014</v>
+        <v>268.5683</v>
       </c>
       <c r="G61" t="n">
-        <v>274.6666666666667</v>
+        <v>-20895.51628512999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2960,22 +2804,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C62" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D62" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E62" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F62" t="n">
-        <v>906.593</v>
+        <v>933.962</v>
       </c>
       <c r="G62" t="n">
-        <v>273.6666666666667</v>
+        <v>-19961.55428512999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3002,22 +2846,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C63" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D63" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E63" t="n">
         <v>271</v>
       </c>
       <c r="F63" t="n">
-        <v>3974.675</v>
+        <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>273.3333333333333</v>
+        <v>-19861.55428512999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3044,7 +2888,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C64" t="n">
         <v>273</v>
@@ -3053,13 +2897,13 @@
         <v>273</v>
       </c>
       <c r="E64" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F64" t="n">
-        <v>906.593</v>
+        <v>7255.6827</v>
       </c>
       <c r="G64" t="n">
-        <v>273</v>
+        <v>-27117.23698512999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3086,22 +2930,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C65" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D65" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E65" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>221.9781</v>
       </c>
       <c r="G65" t="n">
-        <v>273.6666666666667</v>
+        <v>-27339.21508512999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3128,22 +2972,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C66" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D66" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E66" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>833.962</v>
       </c>
       <c r="G66" t="n">
-        <v>274</v>
+        <v>-28173.17708512999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3170,28 +3014,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C67" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D67" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E67" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2.4908</v>
       </c>
       <c r="G67" t="n">
-        <v>275.3333333333333</v>
+        <v>-28170.68628512999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
@@ -3199,47 +3043,51 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1.032453183520599</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1.019083969465649</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C68" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D68" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E68" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>187.9999</v>
       </c>
       <c r="G68" t="n">
-        <v>273.6666666666667</v>
+        <v>-28358.68618512999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>267</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3250,22 +3098,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C69" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D69" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E69" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="G69" t="n">
-        <v>275.3333333333333</v>
+        <v>-28358.68618512999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3274,8 +3122,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>267</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3286,32 +3140,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C70" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D70" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E70" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F70" t="n">
-        <v>898.148</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>275</v>
+        <v>-28357.68618512999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>267</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3322,32 +3182,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C71" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D71" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E71" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F71" t="n">
-        <v>4834.7752</v>
+        <v>2409.7794</v>
       </c>
       <c r="G71" t="n">
-        <v>274.3333333333333</v>
+        <v>-28357.68618512999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>267</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3358,22 +3224,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C72" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D72" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E72" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F72" t="n">
-        <v>10562.1167</v>
+        <v>3546.7413</v>
       </c>
       <c r="G72" t="n">
-        <v>273</v>
+        <v>-31904.42748512999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3382,8 +3248,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>267</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3394,22 +3266,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C73" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D73" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E73" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F73" t="n">
-        <v>5740.5798</v>
+        <v>210.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>272</v>
+        <v>-31693.42758512999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3418,8 +3290,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>267</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3430,22 +3308,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C74" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D74" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E74" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F74" t="n">
-        <v>2884</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
-        <v>272.6666666666667</v>
+        <v>-31693.42758512999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3454,8 +3332,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>267</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3466,22 +3350,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C75" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D75" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E75" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F75" t="n">
-        <v>51.9</v>
+        <v>3.9705</v>
       </c>
       <c r="G75" t="n">
-        <v>272.6666666666667</v>
+        <v>-31689.45708512999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3490,8 +3374,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>267</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3502,22 +3392,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C76" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D76" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E76" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F76" t="n">
-        <v>2010.51</v>
+        <v>733.3161</v>
       </c>
       <c r="G76" t="n">
-        <v>273</v>
+        <v>-31689.45708512999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3526,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>267</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3544,16 +3440,16 @@
         <v>273</v>
       </c>
       <c r="D77" t="n">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="E77" t="n">
         <v>273</v>
       </c>
       <c r="F77" t="n">
-        <v>39.6163</v>
+        <v>27793.78030345</v>
       </c>
       <c r="G77" t="n">
-        <v>273.3333333333333</v>
+        <v>-3895.676781679995</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3562,8 +3458,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>267</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3574,22 +3476,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C78" t="n">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D78" t="n">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E78" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F78" t="n">
-        <v>2800.9999</v>
+        <v>194.9743</v>
       </c>
       <c r="G78" t="n">
-        <v>273.3333333333333</v>
+        <v>-3700.702481679995</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3598,8 +3500,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>267</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3610,22 +3518,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C79" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D79" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E79" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F79" t="n">
-        <v>2640.2227</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>273</v>
+        <v>-3701.702481679995</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3634,8 +3542,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>267</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3646,22 +3560,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C80" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D80" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E80" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F80" t="n">
-        <v>554.968</v>
+        <v>33</v>
       </c>
       <c r="G80" t="n">
-        <v>273</v>
+        <v>-3668.702481679995</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3670,8 +3584,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>267</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3682,32 +3602,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C81" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D81" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E81" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F81" t="n">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>273</v>
+        <v>-3666.702481679995</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>267</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3718,32 +3644,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C82" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D82" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E82" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F82" t="n">
-        <v>1094.6936</v>
+        <v>130.97</v>
       </c>
       <c r="G82" t="n">
-        <v>273.3333333333333</v>
+        <v>-3797.672481679995</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>267</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3754,32 +3686,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C83" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D83" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E83" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F83" t="n">
-        <v>2339.6459</v>
+        <v>712.8908</v>
       </c>
       <c r="G83" t="n">
-        <v>273.6666666666667</v>
+        <v>-3797.672481679995</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>267</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3790,32 +3728,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D84" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E84" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F84" t="n">
-        <v>189.7466</v>
+        <v>1016.4972</v>
       </c>
       <c r="G84" t="n">
-        <v>274</v>
+        <v>-3797.672481679995</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>267</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3826,32 +3770,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C85" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D85" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E85" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F85" t="n">
-        <v>917.602</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>273.6666666666667</v>
+        <v>-3796.672481679995</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>267</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3874,20 +3824,26 @@
         <v>273</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>40.2014</v>
       </c>
       <c r="G86" t="n">
-        <v>273.3333333333333</v>
+        <v>-3836.873881679995</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>267</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3898,32 +3854,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C87" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D87" t="n">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E87" t="n">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F87" t="n">
-        <v>1.989</v>
+        <v>78.3</v>
       </c>
       <c r="G87" t="n">
-        <v>273.3333333333333</v>
+        <v>-3758.573881679994</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>267</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3934,32 +3896,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C88" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D88" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E88" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F88" t="n">
-        <v>540.532</v>
+        <v>3.2215</v>
       </c>
       <c r="G88" t="n">
-        <v>273</v>
+        <v>-3761.795381679995</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>267</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3973,29 +3941,35 @@
         <v>272</v>
       </c>
       <c r="C89" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D89" t="n">
         <v>272</v>
       </c>
       <c r="E89" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F89" t="n">
-        <v>12836.5799</v>
+        <v>40</v>
       </c>
       <c r="G89" t="n">
-        <v>272.3333333333333</v>
+        <v>-3801.795381679995</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>267</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4006,32 +3980,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C90" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D90" t="n">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E90" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F90" t="n">
-        <v>2500</v>
+        <v>7966.4014</v>
       </c>
       <c r="G90" t="n">
-        <v>271.3333333333333</v>
+        <v>4164.606018320005</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>267</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4042,32 +4022,38 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C91" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D91" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E91" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>906.593</v>
       </c>
       <c r="G91" t="n">
-        <v>271.6666666666667</v>
+        <v>5071.199018320005</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>267</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4078,32 +4064,38 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>272</v>
+      </c>
+      <c r="C92" t="n">
         <v>271</v>
       </c>
-      <c r="C92" t="n">
-        <v>273</v>
-      </c>
       <c r="D92" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E92" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F92" t="n">
-        <v>848.2972</v>
+        <v>3974.675</v>
       </c>
       <c r="G92" t="n">
-        <v>272.3333333333333</v>
+        <v>1096.524018320005</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>267</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4114,22 +4106,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C93" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D93" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E93" t="n">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F93" t="n">
-        <v>3654.1956</v>
+        <v>906.593</v>
       </c>
       <c r="G93" t="n">
-        <v>271.3333333333333</v>
+        <v>2003.117018320005</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4138,8 +4130,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>267</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4150,22 +4148,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C94" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D94" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="E94" t="n">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F94" t="n">
-        <v>895.522</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>270.3333333333333</v>
+        <v>2004.117018320005</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4174,8 +4172,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>267</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4186,22 +4190,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C95" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D95" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E95" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F95" t="n">
-        <v>10095.4642</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>268.6666666666667</v>
+        <v>2003.117018320005</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4210,8 +4214,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>267</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4222,22 +4232,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C96" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D96" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E96" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F96" t="n">
-        <v>3.9633</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>270.3333333333333</v>
+        <v>2004.117018320005</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4246,8 +4256,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>267</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4258,22 +4274,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C97" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D97" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E97" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F97" t="n">
-        <v>7946.4854</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>269</v>
+        <v>2003.117018320005</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4282,8 +4298,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>267</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4294,22 +4316,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C98" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D98" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E98" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>270.6666666666667</v>
+        <v>2004.117018320005</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4318,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>267</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4330,22 +4358,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C99" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D99" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E99" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F99" t="n">
-        <v>1800</v>
+        <v>898.148</v>
       </c>
       <c r="G99" t="n">
-        <v>269</v>
+        <v>1105.969018320005</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4354,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>267</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4369,19 +4403,19 @@
         <v>273</v>
       </c>
       <c r="C100" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D100" t="n">
         <v>273</v>
       </c>
       <c r="E100" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>4834.7752</v>
       </c>
       <c r="G100" t="n">
-        <v>271.3333333333333</v>
+        <v>-3728.806181679995</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4390,8 +4424,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>267</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4402,22 +4442,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C101" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D101" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E101" t="n">
         <v>271</v>
       </c>
       <c r="F101" t="n">
-        <v>903.486</v>
+        <v>10562.1167</v>
       </c>
       <c r="G101" t="n">
-        <v>270.6666666666667</v>
+        <v>6833.310518320005</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4426,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>267</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4441,29 +4487,35 @@
         <v>271</v>
       </c>
       <c r="C102" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D102" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E102" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F102" t="n">
-        <v>113</v>
+        <v>5740.5798</v>
       </c>
       <c r="G102" t="n">
-        <v>271.6666666666667</v>
+        <v>6833.310518320005</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>267</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4474,22 +4526,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C103" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D103" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E103" t="n">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F103" t="n">
-        <v>2501.0468</v>
+        <v>2884</v>
       </c>
       <c r="G103" t="n">
-        <v>270</v>
+        <v>3949.310518320005</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4498,8 +4550,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>267</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4522,10 +4580,10 @@
         <v>273</v>
       </c>
       <c r="F104" t="n">
-        <v>10</v>
+        <v>51.9</v>
       </c>
       <c r="G104" t="n">
-        <v>270.6666666666667</v>
+        <v>4001.210518320005</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4534,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>267</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4546,22 +4610,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C105" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D105" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E105" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F105" t="n">
-        <v>22.1135</v>
+        <v>2010.51</v>
       </c>
       <c r="G105" t="n">
-        <v>271.3333333333333</v>
+        <v>6011.720518320005</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4570,8 +4634,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>267</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4582,32 +4652,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C106" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D106" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E106" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F106" t="n">
-        <v>2009.1851</v>
+        <v>39.6163</v>
       </c>
       <c r="G106" t="n">
-        <v>272</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>267</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4630,10 +4706,10 @@
         <v>273</v>
       </c>
       <c r="F107" t="n">
-        <v>10</v>
+        <v>2800.9999</v>
       </c>
       <c r="G107" t="n">
-        <v>272</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4642,8 +4718,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>267</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4654,22 +4736,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C108" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D108" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E108" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F108" t="n">
-        <v>26.3257</v>
+        <v>2640.2227</v>
       </c>
       <c r="G108" t="n">
-        <v>271</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4678,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>267</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4690,22 +4778,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C109" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D109" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E109" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>554.968</v>
       </c>
       <c r="G109" t="n">
-        <v>271.6666666666667</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4714,8 +4802,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>267</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4726,22 +4820,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C110" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D110" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E110" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F110" t="n">
-        <v>181</v>
+        <v>400</v>
       </c>
       <c r="G110" t="n">
-        <v>271.3333333333333</v>
+        <v>5972.104218320005</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4750,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>267</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4762,34 +4862,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C111" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D111" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E111" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F111" t="n">
-        <v>140</v>
+        <v>1094.6936</v>
       </c>
       <c r="G111" t="n">
-        <v>272.3333333333333</v>
+        <v>7066.797818320005</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>267</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>1.02121722846442</v>
       </c>
       <c r="N111" t="inlineStr"/>
     </row>
@@ -4798,28 +4904,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C112" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D112" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E112" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8588</v>
+        <v>2339.6459</v>
       </c>
       <c r="G112" t="n">
-        <v>272.6666666666667</v>
+        <v>7066.797818320005</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4846,16 +4952,16 @@
         <v>274</v>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>189.7466</v>
       </c>
       <c r="G113" t="n">
-        <v>273.3333333333333</v>
+        <v>7066.797818320005</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4870,28 +4976,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C114" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D114" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E114" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F114" t="n">
-        <v>3000</v>
+        <v>917.602</v>
       </c>
       <c r="G114" t="n">
-        <v>273.6666666666667</v>
+        <v>6149.195818320005</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4909,25 +5015,25 @@
         <v>273</v>
       </c>
       <c r="C115" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D115" t="n">
         <v>273</v>
       </c>
       <c r="E115" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F115" t="n">
-        <v>178.6324</v>
+        <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>273</v>
+        <v>6149.195818320005</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4942,28 +5048,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C116" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D116" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E116" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F116" t="n">
-        <v>294.6739</v>
+        <v>1.989</v>
       </c>
       <c r="G116" t="n">
-        <v>272.6666666666667</v>
+        <v>6151.184818320005</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4978,28 +5084,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C117" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D117" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E117" t="n">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F117" t="n">
-        <v>170.01</v>
+        <v>540.532</v>
       </c>
       <c r="G117" t="n">
-        <v>271.6666666666667</v>
+        <v>5610.652818320004</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5014,28 +5120,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C118" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D118" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E118" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F118" t="n">
-        <v>179.01</v>
+        <v>12836.5799</v>
       </c>
       <c r="G118" t="n">
-        <v>272.3333333333333</v>
+        <v>-7225.927081679996</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5050,22 +5156,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C119" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D119" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E119" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F119" t="n">
-        <v>1679</v>
+        <v>2500</v>
       </c>
       <c r="G119" t="n">
-        <v>272.6666666666667</v>
+        <v>-7225.927081679996</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5086,28 +5192,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C120" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D120" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E120" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F120" t="n">
-        <v>3871.6355</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>273.6666666666667</v>
+        <v>-7224.927081679996</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5122,22 +5228,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C121" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D121" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E121" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F121" t="n">
-        <v>2181.2454</v>
+        <v>848.2972</v>
       </c>
       <c r="G121" t="n">
-        <v>274</v>
+        <v>-7224.927081679996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5158,28 +5264,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C122" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D122" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E122" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F122" t="n">
-        <v>18.9456</v>
+        <v>3654.1956</v>
       </c>
       <c r="G122" t="n">
-        <v>274.6666666666667</v>
+        <v>-10879.12268168</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5194,28 +5300,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C123" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D123" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E123" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F123" t="n">
-        <v>172.8675</v>
+        <v>895.522</v>
       </c>
       <c r="G123" t="n">
-        <v>274.6666666666667</v>
+        <v>-9983.600681679996</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5230,28 +5336,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C124" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D124" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E124" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F124" t="n">
-        <v>343.7862</v>
+        <v>10095.4642</v>
       </c>
       <c r="G124" t="n">
-        <v>275.3333333333333</v>
+        <v>-20079.06488167999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5266,28 +5372,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C125" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D125" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E125" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F125" t="n">
-        <v>119</v>
+        <v>3.9633</v>
       </c>
       <c r="G125" t="n">
-        <v>274.6666666666667</v>
+        <v>-20075.10158168</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5302,28 +5408,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C126" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D126" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E126" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F126" t="n">
-        <v>593.4172</v>
+        <v>7946.4854</v>
       </c>
       <c r="G126" t="n">
-        <v>275.3333333333333</v>
+        <v>-28021.58698168</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5338,28 +5444,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C127" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D127" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E127" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>275.6666666666667</v>
+        <v>-28011.58698168</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5374,28 +5480,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C128" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D128" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E128" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F128" t="n">
-        <v>6200.5869</v>
+        <v>1800</v>
       </c>
       <c r="G128" t="n">
-        <v>276.3333333333333</v>
+        <v>-29811.58698168</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5410,28 +5516,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C129" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D129" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E129" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F129" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>275.6666666666667</v>
+        <v>-29810.58698168</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5446,28 +5552,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C130" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D130" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E130" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>903.486</v>
       </c>
       <c r="G130" t="n">
-        <v>275.3333333333333</v>
+        <v>-30714.07298168</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5482,28 +5588,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C131" t="n">
         <v>271</v>
       </c>
       <c r="D131" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E131" t="n">
         <v>271</v>
       </c>
       <c r="F131" t="n">
-        <v>1173.9343</v>
+        <v>113</v>
       </c>
       <c r="G131" t="n">
-        <v>273.6666666666667</v>
+        <v>-30714.07298168</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5518,28 +5624,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C132" t="n">
+        <v>268</v>
+      </c>
+      <c r="D132" t="n">
         <v>269</v>
       </c>
-      <c r="D132" t="n">
-        <v>273</v>
-      </c>
       <c r="E132" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F132" t="n">
-        <v>2200</v>
+        <v>2501.0468</v>
       </c>
       <c r="G132" t="n">
-        <v>272</v>
+        <v>-33215.11978168</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5554,22 +5660,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C133" t="n">
         <v>273</v>
       </c>
       <c r="D133" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E133" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F133" t="n">
-        <v>1839.1613</v>
+        <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>271</v>
+        <v>-33205.11978168</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5602,16 +5708,16 @@
         <v>273</v>
       </c>
       <c r="F134" t="n">
-        <v>138</v>
+        <v>22.1135</v>
       </c>
       <c r="G134" t="n">
-        <v>271.6666666666667</v>
+        <v>-33205.11978168</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5626,22 +5732,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C135" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D135" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E135" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>2009.1851</v>
       </c>
       <c r="G135" t="n">
-        <v>274.3333333333333</v>
+        <v>-35214.30488168</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5662,28 +5768,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C136" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D136" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E136" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F136" t="n">
-        <v>5311.0035</v>
+        <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>274.6666666666667</v>
+        <v>-35204.30488168</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5693,6 +5799,1050 @@
       </c>
       <c r="N136" t="inlineStr"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>270</v>
+      </c>
+      <c r="C137" t="n">
+        <v>270</v>
+      </c>
+      <c r="D137" t="n">
+        <v>270</v>
+      </c>
+      <c r="E137" t="n">
+        <v>270</v>
+      </c>
+      <c r="F137" t="n">
+        <v>26.3257</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-35230.63058168</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>272</v>
+      </c>
+      <c r="C138" t="n">
+        <v>272</v>
+      </c>
+      <c r="D138" t="n">
+        <v>272</v>
+      </c>
+      <c r="E138" t="n">
+        <v>272</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-35229.63058168</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>272</v>
+      </c>
+      <c r="C139" t="n">
+        <v>272</v>
+      </c>
+      <c r="D139" t="n">
+        <v>272</v>
+      </c>
+      <c r="E139" t="n">
+        <v>272</v>
+      </c>
+      <c r="F139" t="n">
+        <v>181</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-35229.63058168</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>273</v>
+      </c>
+      <c r="C140" t="n">
+        <v>273</v>
+      </c>
+      <c r="D140" t="n">
+        <v>273</v>
+      </c>
+      <c r="E140" t="n">
+        <v>273</v>
+      </c>
+      <c r="F140" t="n">
+        <v>140</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-35089.63058168</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>273</v>
+      </c>
+      <c r="C141" t="n">
+        <v>273</v>
+      </c>
+      <c r="D141" t="n">
+        <v>273</v>
+      </c>
+      <c r="E141" t="n">
+        <v>273</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.8588</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-35089.63058168</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>274</v>
+      </c>
+      <c r="C142" t="n">
+        <v>274</v>
+      </c>
+      <c r="D142" t="n">
+        <v>274</v>
+      </c>
+      <c r="E142" t="n">
+        <v>274</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-35088.63058168</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>274</v>
+      </c>
+      <c r="C143" t="n">
+        <v>274</v>
+      </c>
+      <c r="D143" t="n">
+        <v>274</v>
+      </c>
+      <c r="E143" t="n">
+        <v>274</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-35088.63058168</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>273</v>
+      </c>
+      <c r="C144" t="n">
+        <v>271</v>
+      </c>
+      <c r="D144" t="n">
+        <v>273</v>
+      </c>
+      <c r="E144" t="n">
+        <v>271</v>
+      </c>
+      <c r="F144" t="n">
+        <v>178.6324</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-35267.26298168</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>273</v>
+      </c>
+      <c r="C145" t="n">
+        <v>273</v>
+      </c>
+      <c r="D145" t="n">
+        <v>273</v>
+      </c>
+      <c r="E145" t="n">
+        <v>273</v>
+      </c>
+      <c r="F145" t="n">
+        <v>294.6739</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-34972.58908168</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>271</v>
+      </c>
+      <c r="C146" t="n">
+        <v>271</v>
+      </c>
+      <c r="D146" t="n">
+        <v>271</v>
+      </c>
+      <c r="E146" t="n">
+        <v>271</v>
+      </c>
+      <c r="F146" t="n">
+        <v>170.01</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-35142.59908168</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>273</v>
+      </c>
+      <c r="C147" t="n">
+        <v>273</v>
+      </c>
+      <c r="D147" t="n">
+        <v>273</v>
+      </c>
+      <c r="E147" t="n">
+        <v>273</v>
+      </c>
+      <c r="F147" t="n">
+        <v>179.01</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-34963.58908168</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>273</v>
+      </c>
+      <c r="C148" t="n">
+        <v>274</v>
+      </c>
+      <c r="D148" t="n">
+        <v>274</v>
+      </c>
+      <c r="E148" t="n">
+        <v>269</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1679</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-33284.58908168</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>274</v>
+      </c>
+      <c r="C149" t="n">
+        <v>274</v>
+      </c>
+      <c r="D149" t="n">
+        <v>274</v>
+      </c>
+      <c r="E149" t="n">
+        <v>274</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3871.6355</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-33284.58908168</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>274</v>
+      </c>
+      <c r="C150" t="n">
+        <v>274</v>
+      </c>
+      <c r="D150" t="n">
+        <v>274</v>
+      </c>
+      <c r="E150" t="n">
+        <v>274</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2181.2454</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-33284.58908168</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>276</v>
+      </c>
+      <c r="C151" t="n">
+        <v>276</v>
+      </c>
+      <c r="D151" t="n">
+        <v>276</v>
+      </c>
+      <c r="E151" t="n">
+        <v>276</v>
+      </c>
+      <c r="F151" t="n">
+        <v>18.9456</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-33265.64348168</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>274</v>
+      </c>
+      <c r="C152" t="n">
+        <v>274</v>
+      </c>
+      <c r="D152" t="n">
+        <v>274</v>
+      </c>
+      <c r="E152" t="n">
+        <v>274</v>
+      </c>
+      <c r="F152" t="n">
+        <v>172.8675</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-33438.51098168</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>276</v>
+      </c>
+      <c r="C153" t="n">
+        <v>276</v>
+      </c>
+      <c r="D153" t="n">
+        <v>276</v>
+      </c>
+      <c r="E153" t="n">
+        <v>276</v>
+      </c>
+      <c r="F153" t="n">
+        <v>343.7862</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-33094.72478168</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>274</v>
+      </c>
+      <c r="C154" t="n">
+        <v>274</v>
+      </c>
+      <c r="D154" t="n">
+        <v>274</v>
+      </c>
+      <c r="E154" t="n">
+        <v>274</v>
+      </c>
+      <c r="F154" t="n">
+        <v>119</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-33213.72478168</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>276</v>
+      </c>
+      <c r="C155" t="n">
+        <v>276</v>
+      </c>
+      <c r="D155" t="n">
+        <v>276</v>
+      </c>
+      <c r="E155" t="n">
+        <v>276</v>
+      </c>
+      <c r="F155" t="n">
+        <v>593.4172</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-32620.30758168</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>277</v>
+      </c>
+      <c r="C156" t="n">
+        <v>277</v>
+      </c>
+      <c r="D156" t="n">
+        <v>277</v>
+      </c>
+      <c r="E156" t="n">
+        <v>277</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-32619.30758168</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>276</v>
+      </c>
+      <c r="C157" t="n">
+        <v>276</v>
+      </c>
+      <c r="D157" t="n">
+        <v>276</v>
+      </c>
+      <c r="E157" t="n">
+        <v>276</v>
+      </c>
+      <c r="F157" t="n">
+        <v>6200.5869</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-38819.89448168</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>274</v>
+      </c>
+      <c r="C158" t="n">
+        <v>274</v>
+      </c>
+      <c r="D158" t="n">
+        <v>274</v>
+      </c>
+      <c r="E158" t="n">
+        <v>274</v>
+      </c>
+      <c r="F158" t="n">
+        <v>120</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-38939.89448168</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>276</v>
+      </c>
+      <c r="C159" t="n">
+        <v>276</v>
+      </c>
+      <c r="D159" t="n">
+        <v>276</v>
+      </c>
+      <c r="E159" t="n">
+        <v>276</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-38938.89448168</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>272</v>
+      </c>
+      <c r="C160" t="n">
+        <v>271</v>
+      </c>
+      <c r="D160" t="n">
+        <v>272</v>
+      </c>
+      <c r="E160" t="n">
+        <v>271</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1173.9343</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-40112.82878168</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>273</v>
+      </c>
+      <c r="C161" t="n">
+        <v>269</v>
+      </c>
+      <c r="D161" t="n">
+        <v>273</v>
+      </c>
+      <c r="E161" t="n">
+        <v>269</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-42312.82878168</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>270</v>
+      </c>
+      <c r="C162" t="n">
+        <v>273</v>
+      </c>
+      <c r="D162" t="n">
+        <v>276</v>
+      </c>
+      <c r="E162" t="n">
+        <v>270</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1839.1613</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-40473.66748168</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>273</v>
+      </c>
+      <c r="C163" t="n">
+        <v>273</v>
+      </c>
+      <c r="D163" t="n">
+        <v>273</v>
+      </c>
+      <c r="E163" t="n">
+        <v>273</v>
+      </c>
+      <c r="F163" t="n">
+        <v>138</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-40473.66748168</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>277</v>
+      </c>
+      <c r="C164" t="n">
+        <v>277</v>
+      </c>
+      <c r="D164" t="n">
+        <v>277</v>
+      </c>
+      <c r="E164" t="n">
+        <v>277</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-40472.66748168</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>277</v>
+      </c>
+      <c r="C165" t="n">
+        <v>274</v>
+      </c>
+      <c r="D165" t="n">
+        <v>280</v>
+      </c>
+      <c r="E165" t="n">
+        <v>272</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5311.0035</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-45783.67098168</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-31 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-31 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-26224.97849999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-26226.54629999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-26224.54629999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-21120.20818512999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-25957.38708512999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-25334.48468513</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-25324.48468513</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-25326.48468513</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-25327.48468513</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-20230.53828512999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-20231.53828512999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-24647.23758512999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,21 @@
         <v>-32270.59798512999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,22 +1348,19 @@
         <v>-31694.00978512999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>263</v>
-      </c>
-      <c r="K29" t="n">
-        <v>263</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1468,26 +1385,21 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
         <v>265</v>
       </c>
-      <c r="K30" t="n">
-        <v>263</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1514,24 +1426,17 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>266</v>
-      </c>
-      <c r="K31" t="n">
-        <v>263</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,20 +1463,17 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>266</v>
-      </c>
-      <c r="K32" t="n">
-        <v>266</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1596,24 +1498,19 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>266</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1640,24 +1537,17 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>266</v>
-      </c>
-      <c r="K34" t="n">
-        <v>266</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1684,20 +1574,17 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>266</v>
-      </c>
-      <c r="K35" t="n">
-        <v>266</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1722,26 +1609,21 @@
         <v>-31118.42178512999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
         <v>262</v>
       </c>
-      <c r="K36" t="n">
-        <v>266</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1766,26 +1648,21 @@
         <v>-31108.42178512999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
         <v>262</v>
       </c>
-      <c r="K37" t="n">
-        <v>266</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1810,22 +1687,21 @@
         <v>-31278.62068512999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
         <v>267</v>
       </c>
-      <c r="K38" t="n">
-        <v>267</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1850,26 +1726,21 @@
         <v>-17626.32238512999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
         <v>264</v>
       </c>
-      <c r="K39" t="n">
-        <v>267</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1894,26 +1765,21 @@
         <v>-16685.25838512999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
         <v>268</v>
       </c>
-      <c r="K40" t="n">
-        <v>267</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1940,22 +1806,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>267</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1980,24 +1841,21 @@
         <v>-16952.70168512999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>267</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2022,24 +1880,21 @@
         <v>-16952.70168512999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>267</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2064,24 +1919,21 @@
         <v>-16951.70168512999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>267</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2108,22 +1960,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>267</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2150,22 +1997,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>267</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2192,22 +2034,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>267</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2234,22 +2071,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>267</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2276,22 +2108,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>267</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2318,22 +2145,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>267</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2360,22 +2182,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>267</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2402,22 +2219,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>267</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2444,22 +2256,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>267</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2484,24 +2291,21 @@
         <v>-19359.04078512999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>267</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2528,22 +2332,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>267</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2570,22 +2369,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>267</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2612,22 +2406,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>267</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2654,22 +2443,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>267</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2696,22 +2480,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>267</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2736,26 +2515,19 @@
         <v>-20895.51628512999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>264</v>
-      </c>
-      <c r="K60" t="n">
-        <v>267</v>
-      </c>
-      <c r="L60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2782,22 +2554,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>267</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2824,22 +2591,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>267</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2866,22 +2628,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>267</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2908,22 +2665,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>267</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2950,22 +2702,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>267</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2992,22 +2739,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>267</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3034,22 +2776,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>267</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3076,22 +2813,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>267</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3118,22 +2850,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>267</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3160,22 +2887,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>267</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3202,22 +2924,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>267</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3244,22 +2961,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>267</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3286,22 +2998,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>267</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3328,22 +3035,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>267</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3370,22 +3072,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>267</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3412,22 +3109,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>267</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3454,22 +3146,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>267</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3496,22 +3183,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>267</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3538,22 +3220,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>267</v>
-      </c>
-      <c r="L79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3580,22 +3257,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>267</v>
-      </c>
-      <c r="L80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3622,22 +3294,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>267</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3664,22 +3331,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>267</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3706,22 +3368,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>267</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3748,22 +3405,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>267</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3790,22 +3442,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>267</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3832,22 +3479,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>267</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3874,22 +3516,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>267</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3916,22 +3553,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>267</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3958,22 +3590,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>267</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4000,22 +3627,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>267</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4040,24 +3662,17 @@
         <v>5071.199018320005</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>267</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4084,22 +3699,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>267</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4124,24 +3730,15 @@
         <v>2003.117018320005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>267</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4166,24 +3763,15 @@
         <v>2004.117018320005</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>267</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4208,24 +3796,15 @@
         <v>2003.117018320005</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>267</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4252,22 +3831,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>267</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4294,22 +3864,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>267</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4336,22 +3897,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>267</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4378,22 +3930,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>267</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4420,22 +3963,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>267</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4462,22 +3996,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>267</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4504,22 +4029,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>267</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4546,22 +4062,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>267</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4588,22 +4095,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>267</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4630,22 +4128,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>267</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4672,22 +4161,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>267</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4714,22 +4194,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>267</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4756,22 +4227,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>267</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4798,22 +4260,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>267</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4840,22 +4293,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>267</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4882,22 +4326,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>267</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1.02121722846442</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4924,16 +4359,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4960,16 +4392,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4996,16 +4425,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5032,16 +4458,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5068,16 +4491,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5104,16 +4524,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5140,16 +4557,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5176,16 +4590,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5212,16 +4623,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5248,16 +4656,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5284,16 +4689,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5320,16 +4722,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5356,16 +4755,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5392,16 +4788,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5428,16 +4821,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5464,16 +4854,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5500,16 +4887,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5536,16 +4920,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5572,16 +4953,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5608,16 +4986,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5644,16 +5019,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5680,16 +5052,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5716,16 +5085,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5752,16 +5118,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5788,16 +5151,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5824,16 +5184,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5860,16 +5217,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5896,16 +5250,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5932,16 +5283,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5968,16 +5316,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6004,16 +5349,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6038,18 +5380,15 @@
         <v>-35088.63058168</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6076,16 +5415,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6112,16 +5448,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6148,16 +5481,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6184,16 +5514,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6220,16 +5547,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6256,16 +5580,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6292,16 +5613,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6326,18 +5644,15 @@
         <v>-33265.64348168</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6362,18 +5677,15 @@
         <v>-33438.51098168</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6398,18 +5710,15 @@
         <v>-33094.72478168</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6434,18 +5743,15 @@
         <v>-33213.72478168</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6470,18 +5776,15 @@
         <v>-32620.30758168</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6506,18 +5809,15 @@
         <v>-32619.30758168</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6542,18 +5842,15 @@
         <v>-38819.89448168</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6578,18 +5875,15 @@
         <v>-38939.89448168</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6614,18 +5908,15 @@
         <v>-38938.89448168</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6650,18 +5941,15 @@
         <v>-40112.82878168</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6686,18 +5974,15 @@
         <v>-42312.82878168</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6724,16 +6009,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6760,16 +6042,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6796,16 +6075,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6832,18 +6108,15 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-31 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-26224.97849999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-26226.54629999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-26224.54629999999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-21120.20818512999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-25957.38708512999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-25334.48468513</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-25324.48468513</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-25326.48468513</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-25327.48468513</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-20230.53828512999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-20231.53828512999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-24647.23758512999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,17 +1309,11 @@
         <v>-32270.59798512999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1348,15 +1342,15 @@
         <v>-31694.00978512999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>263</v>
+      </c>
+      <c r="J29" t="n">
+        <v>263</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1385,15 +1379,17 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>265</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>263</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1426,11 +1422,15 @@
       <c r="H31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>266</v>
+      </c>
+      <c r="J31" t="n">
+        <v>263</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1463,13 +1463,13 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I32" t="n">
+        <v>266</v>
+      </c>
+      <c r="J32" t="n">
+        <v>266</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1500,11 +1500,15 @@
       <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>266</v>
+      </c>
+      <c r="J33" t="n">
+        <v>266</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1537,11 +1541,15 @@
       <c r="H34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>266</v>
+      </c>
+      <c r="J34" t="n">
+        <v>266</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1574,13 +1582,13 @@
       <c r="H35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I35" t="n">
+        <v>266</v>
+      </c>
+      <c r="J35" t="n">
+        <v>266</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1609,15 +1617,17 @@
         <v>-31118.42178512999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>262</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>266</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1648,15 +1658,17 @@
         <v>-31108.42178512999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>262</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>266</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1687,17 +1699,15 @@
         <v>-31278.62068512999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>267</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="n">
+        <v>267</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1726,15 +1736,17 @@
         <v>-17626.32238512999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>264</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>267</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1765,12 +1777,14 @@
         <v>-16685.25838512999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>268</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>267</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1807,7 +1821,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>267</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1841,12 +1857,14 @@
         <v>-16952.70168512999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>268</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>267</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1880,12 +1898,12 @@
         <v>-16952.70168512999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>268</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>267</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1919,12 +1937,12 @@
         <v>-16951.70168512999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>268</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>267</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1961,7 +1979,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>267</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1998,7 +2018,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>267</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2035,7 +2057,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>267</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2072,7 +2096,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>267</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2109,7 +2135,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>267</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2146,7 +2174,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>267</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2183,7 +2213,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>267</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2220,7 +2252,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>267</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2257,7 +2291,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>267</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2291,12 +2327,12 @@
         <v>-19359.04078512999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>266</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>267</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2333,7 +2369,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>267</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,7 +2408,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>267</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2407,7 +2447,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>267</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,7 +2486,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>267</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2481,7 +2525,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>267</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2518,7 +2564,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>267</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2555,7 +2603,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>267</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2592,7 +2642,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>267</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,7 +2681,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>267</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2666,7 +2720,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>267</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2703,7 +2759,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>267</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2740,7 +2798,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>267</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2777,7 +2837,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>267</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,7 +2876,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>267</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2851,7 +2915,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>267</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,7 +2954,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>267</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2925,7 +2993,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>267</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,7 +3032,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>267</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2999,7 +3071,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>267</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3036,7 +3110,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>267</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3073,7 +3149,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>267</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,7 +3188,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>267</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3147,7 +3227,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>267</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3184,7 +3266,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>267</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3221,7 +3305,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>267</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3258,7 +3344,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>267</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3295,7 +3383,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>267</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3332,7 +3422,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>267</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3369,7 +3461,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>267</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,7 +3500,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>267</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3443,7 +3539,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>267</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3480,7 +3578,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>267</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3517,7 +3617,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>267</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3554,7 +3656,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>267</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,7 +3695,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>267</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3628,7 +3734,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>267</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,16 +3770,20 @@
         <v>5071.199018320005</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>267</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
       <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
@@ -3700,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>267</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3730,11 +3848,17 @@
         <v>2003.117018320005</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>267</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3763,11 +3887,17 @@
         <v>2004.117018320005</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>267</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3796,11 +3926,17 @@
         <v>2003.117018320005</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>267</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3832,8 +3968,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>267</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3865,8 +4007,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>267</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3898,8 +4046,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>267</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3928,13 +4082,19 @@
         <v>1105.969018320005</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>267</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>1.02870786516854</v>
       </c>
       <c r="M99" t="inlineStr"/>
     </row>
@@ -4027,7 +4187,7 @@
         <v>6833.310518320005</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4060,7 +4220,7 @@
         <v>3949.310518320005</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4093,7 +4253,7 @@
         <v>4001.210518320005</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4126,7 +4286,7 @@
         <v>6011.720518320005</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4159,7 +4319,7 @@
         <v>5972.104218320005</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4192,7 +4352,7 @@
         <v>5972.104218320005</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4225,7 +4385,7 @@
         <v>5972.104218320005</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4258,7 +4418,7 @@
         <v>5972.104218320005</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4291,7 +4451,7 @@
         <v>5972.104218320005</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4324,7 +4484,7 @@
         <v>7066.797818320005</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4357,7 +4517,7 @@
         <v>7066.797818320005</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4390,7 +4550,7 @@
         <v>7066.797818320005</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4555,7 +4715,7 @@
         <v>-7225.927081679996</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4588,7 +4748,7 @@
         <v>-7225.927081679996</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4621,7 +4781,7 @@
         <v>-7224.927081679996</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4654,7 +4814,7 @@
         <v>-7224.927081679996</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4687,7 +4847,7 @@
         <v>-10879.12268168</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4720,7 +4880,7 @@
         <v>-9983.600681679996</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4753,7 +4913,7 @@
         <v>-20079.06488167999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4786,7 +4946,7 @@
         <v>-20075.10158168</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4819,7 +4979,7 @@
         <v>-28021.58698168</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4852,7 +5012,7 @@
         <v>-28011.58698168</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5050,7 +5210,7 @@
         <v>-33205.11978168</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5083,7 +5243,7 @@
         <v>-33205.11978168</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5116,7 +5276,7 @@
         <v>-35214.30488168</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5149,7 +5309,7 @@
         <v>-35204.30488168</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5182,7 +5342,7 @@
         <v>-35230.63058168</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5347,7 +5507,7 @@
         <v>-35088.63058168</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5380,7 +5540,7 @@
         <v>-35088.63058168</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5413,7 +5573,7 @@
         <v>-35267.26298168</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5446,7 +5606,7 @@
         <v>-34972.58908168</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5479,7 +5639,7 @@
         <v>-35142.59908168</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5545,7 +5705,7 @@
         <v>-33284.58908168</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5644,7 +5804,7 @@
         <v>-33265.64348168</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5677,7 +5837,7 @@
         <v>-33438.51098168</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5710,7 +5870,7 @@
         <v>-33094.72478168</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5743,7 +5903,7 @@
         <v>-33213.72478168</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5776,7 +5936,7 @@
         <v>-32620.30758168</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5809,7 +5969,7 @@
         <v>-32619.30758168</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5842,7 +6002,7 @@
         <v>-38819.89448168</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5875,7 +6035,7 @@
         <v>-38939.89448168</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5908,7 +6068,7 @@
         <v>-38938.89448168</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5941,7 +6101,7 @@
         <v>-40112.82878168</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5974,7 +6134,7 @@
         <v>-42312.82878168</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6117,6 +6277,6 @@
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-31 BackTest PIVX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1144,11 +1144,17 @@
         <v>-20230.53828512999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>267</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1187,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1224,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1261,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1298,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1331,17 @@
         <v>-32270.59798512999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>265</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1347,10 +1375,12 @@
       <c r="I29" t="n">
         <v>263</v>
       </c>
-      <c r="J29" t="n">
-        <v>263</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1384,12 +1414,10 @@
       <c r="I30" t="n">
         <v>265</v>
       </c>
-      <c r="J30" t="n">
-        <v>263</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1425,12 +1453,10 @@
       <c r="I31" t="n">
         <v>266</v>
       </c>
-      <c r="J31" t="n">
-        <v>263</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1466,10 +1492,12 @@
       <c r="I32" t="n">
         <v>266</v>
       </c>
-      <c r="J32" t="n">
-        <v>266</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1526,13 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>266</v>
-      </c>
-      <c r="J33" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1539,17 +1563,13 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>266</v>
-      </c>
-      <c r="J34" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1580,15 +1600,15 @@
         <v>-31118.42178512999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>266</v>
-      </c>
-      <c r="J35" t="n">
-        <v>266</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1622,12 +1642,10 @@
       <c r="I36" t="n">
         <v>262</v>
       </c>
-      <c r="J36" t="n">
-        <v>266</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1663,12 +1681,10 @@
       <c r="I37" t="n">
         <v>262</v>
       </c>
-      <c r="J37" t="n">
-        <v>266</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
@@ -1699,15 +1715,15 @@
         <v>-31278.62068512999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>267</v>
-      </c>
-      <c r="J38" t="n">
-        <v>267</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1736,17 +1752,13 @@
         <v>-17626.32238512999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>264</v>
-      </c>
-      <c r="J39" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1777,14 +1789,10 @@
         <v>-16685.25838512999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>268</v>
-      </c>
-      <c r="J40" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1821,9 +1829,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>267</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1857,14 +1863,10 @@
         <v>-16952.70168512999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>268</v>
-      </c>
-      <c r="J42" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1901,9 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>267</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,9 +1940,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>267</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1979,9 +1977,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>267</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2018,9 +2014,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>267</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2057,9 +2051,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>267</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2096,9 +2088,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>267</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2135,9 +2125,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>267</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2174,9 +2162,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>267</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2213,9 +2199,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>267</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,9 +2236,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>267</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2291,9 +2273,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>267</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2330,9 +2310,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>267</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2369,9 +2347,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>267</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2408,9 +2384,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>267</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2447,9 +2421,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>267</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,9 +2458,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>267</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2525,9 +2495,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>267</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2564,9 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>267</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2603,9 +2569,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>267</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2642,9 +2606,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>267</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2681,9 +2643,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>267</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2720,9 +2680,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>267</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2759,9 +2717,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>267</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,9 +2754,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>267</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2837,9 +2791,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>267</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2876,9 +2828,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>267</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2915,9 +2865,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>267</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2954,9 +2902,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>267</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2993,9 +2939,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>267</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,9 +2976,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>267</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3071,9 +3013,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>267</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,9 +3050,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>267</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3149,9 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>267</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3188,9 +3124,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>267</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3227,9 +3161,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>267</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3266,9 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>267</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3305,9 +3235,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>267</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3344,9 +3272,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>267</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3383,9 +3309,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>267</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3422,9 +3346,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>267</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3461,9 +3383,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>267</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,9 +3420,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>267</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,9 +3457,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>267</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,9 +3494,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>267</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3617,9 +3531,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>267</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3656,9 +3568,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>267</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,9 +3605,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>267</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3734,9 +3642,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>267</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3773,9 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>267</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3812,9 +3716,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>267</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3851,9 +3753,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>267</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3890,9 +3790,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>267</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3929,9 +3827,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>267</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3968,9 +3864,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>267</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,9 +3901,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>267</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4046,9 +3938,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>267</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,19 +3972,17 @@
         <v>1105.969018320005</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>267</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.02870786516854</v>
+        <v>1</v>
       </c>
       <c r="M99" t="inlineStr"/>
     </row>
@@ -4125,7 +4013,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4158,7 +4050,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4187,11 +4083,15 @@
         <v>6833.310518320005</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4220,11 +4120,15 @@
         <v>3949.310518320005</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4253,11 +4157,15 @@
         <v>4001.210518320005</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4286,11 +4194,15 @@
         <v>6011.720518320005</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4323,10 +4235,12 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -4550,7 +4464,7 @@
         <v>7066.797818320005</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4715,7 +4629,7 @@
         <v>-7225.927081679996</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4748,7 +4662,7 @@
         <v>-7225.927081679996</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4781,7 +4695,7 @@
         <v>-7224.927081679996</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4814,7 +4728,7 @@
         <v>-7224.927081679996</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4847,7 +4761,7 @@
         <v>-10879.12268168</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4880,7 +4794,7 @@
         <v>-9983.600681679996</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4913,7 +4827,7 @@
         <v>-20079.06488167999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4946,7 +4860,7 @@
         <v>-20075.10158168</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4979,7 +4893,7 @@
         <v>-28021.58698168</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5012,7 +4926,7 @@
         <v>-28011.58698168</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5210,7 +5124,7 @@
         <v>-33205.11978168</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5243,7 +5157,7 @@
         <v>-33205.11978168</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5276,7 +5190,7 @@
         <v>-35214.30488168</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5309,7 +5223,7 @@
         <v>-35204.30488168</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5342,7 +5256,7 @@
         <v>-35230.63058168</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5507,7 +5421,7 @@
         <v>-35088.63058168</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5540,7 +5454,7 @@
         <v>-35088.63058168</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5573,7 +5487,7 @@
         <v>-35267.26298168</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5606,7 +5520,7 @@
         <v>-34972.58908168</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5639,7 +5553,7 @@
         <v>-35142.59908168</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5705,7 +5619,7 @@
         <v>-33284.58908168</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5903,7 +5817,7 @@
         <v>-33213.72478168</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5969,7 +5883,7 @@
         <v>-32619.30758168</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6277,6 +6191,6 @@
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-31 BackTest PIVX.xlsx
@@ -583,7 +583,7 @@
         <v>-25957.38708512999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-22196.42858512999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-25334.48468513</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-25324.48468513</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1144,17 +1144,11 @@
         <v>-20230.53828512999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1187,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1220,15 +1210,11 @@
         <v>-20231.53828512999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1257,15 +1243,11 @@
         <v>-24647.23758512999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1294,15 +1276,11 @@
         <v>-24647.23758512999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1331,17 +1309,11 @@
         <v>-32270.59798512999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1370,17 +1342,11 @@
         <v>-31694.00978512999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>263</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1409,17 +1375,11 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1448,17 +1408,11 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1487,17 +1441,11 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1530,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1563,15 +1507,15 @@
         <v>-31117.42178512999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>266</v>
+      </c>
+      <c r="J34" t="n">
+        <v>266</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1600,13 +1544,17 @@
         <v>-31118.42178512999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>266</v>
+      </c>
+      <c r="J35" t="n">
+        <v>266</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L35" t="n">
@@ -1642,10 +1590,12 @@
       <c r="I36" t="n">
         <v>262</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>266</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L36" t="n">
@@ -1681,12 +1631,10 @@
       <c r="I37" t="n">
         <v>262</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="n">
+        <v>262</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1715,13 +1663,17 @@
         <v>-31278.62068512999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>267</v>
+      </c>
+      <c r="J38" t="n">
+        <v>262</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -1752,13 +1704,17 @@
         <v>-17626.32238512999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>264</v>
+      </c>
+      <c r="J39" t="n">
+        <v>262</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1793,11 +1749,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1830,11 +1782,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1867,11 +1815,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1904,11 +1848,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1941,11 +1881,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1978,11 +1914,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2015,11 +1947,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2052,11 +1980,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2089,11 +2013,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2126,11 +2046,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2163,11 +2079,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2112,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2237,11 +2145,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2274,11 +2178,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2311,11 +2211,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2244,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2277,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2422,11 +2310,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2459,11 +2343,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2496,11 +2376,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2409,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2442,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2475,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2644,11 +2508,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2681,11 +2541,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2718,11 +2574,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2607,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2792,11 +2640,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2673,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2866,11 +2706,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2903,11 +2739,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2940,11 +2772,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +2805,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3014,11 +2838,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3051,11 +2871,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3088,11 +2904,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3125,11 +2937,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3162,11 +2970,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3199,11 +3003,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3232,15 +3032,11 @@
         <v>-3701.702481679995</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3273,11 +3069,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3310,11 +3102,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3347,11 +3135,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3384,11 +3168,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3201,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3458,11 +3234,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3495,11 +3267,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3532,11 +3300,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3569,11 +3333,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3602,15 +3362,11 @@
         <v>-3801.795381679995</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3643,11 +3399,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3432,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3713,15 +3461,11 @@
         <v>1096.524018320005</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3754,11 +3498,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3791,11 +3531,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3824,15 +3560,11 @@
         <v>2003.117018320005</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3865,11 +3597,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3902,11 +3630,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3939,11 +3663,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3972,15 +3692,11 @@
         <v>1105.969018320005</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4009,15 +3725,11 @@
         <v>-3728.806181679995</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4050,11 +3762,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4087,11 +3795,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4124,11 +3828,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4161,11 +3861,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4198,11 +3894,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4235,12 +3927,10 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
       <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
@@ -4464,7 +4154,7 @@
         <v>7066.797818320005</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4497,7 +4187,7 @@
         <v>6149.195818320005</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4530,7 +4220,7 @@
         <v>6149.195818320005</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4563,7 +4253,7 @@
         <v>6151.184818320005</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4596,7 +4286,7 @@
         <v>5610.652818320004</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4662,7 +4352,7 @@
         <v>-7225.927081679996</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5784,7 +5474,7 @@
         <v>-33094.72478168</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5817,7 +5507,7 @@
         <v>-33213.72478168</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5850,7 +5540,7 @@
         <v>-32620.30758168</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5883,7 +5573,7 @@
         <v>-32619.30758168</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5916,7 +5606,7 @@
         <v>-38819.89448168</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5949,7 +5639,7 @@
         <v>-38939.89448168</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5982,7 +5672,7 @@
         <v>-38938.89448168</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6015,7 +5705,7 @@
         <v>-40112.82878168</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6147,7 +5837,7 @@
         <v>-40472.66748168</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6180,7 +5870,7 @@
         <v>-45783.67098168</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>

--- a/BackTest/2019-10-31 BackTest PIVX.xlsx
+++ b/BackTest/2019-10-31 BackTest PIVX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1353.235</v>
       </c>
       <c r="G2" t="n">
-        <v>-26224.97849999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,19 @@
         <v>1.5678</v>
       </c>
       <c r="G3" t="n">
-        <v>-26226.54629999999</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="I3" t="n">
+        <v>269</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +507,23 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>-26224.54629999999</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>268</v>
+      </c>
+      <c r="I4" t="n">
+        <v>269</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>5104.33811487</v>
       </c>
       <c r="G5" t="n">
-        <v>-21120.20818512999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>269</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>4837.1789</v>
       </c>
       <c r="G6" t="n">
-        <v>-25957.38708512999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>269</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,21 @@
         <v>5814.3103</v>
       </c>
       <c r="G7" t="n">
-        <v>-25957.38708512999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>269</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +653,21 @@
         <v>1289.4203</v>
       </c>
       <c r="G8" t="n">
-        <v>-25957.38708512999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>269</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +689,21 @@
         <v>5044.619</v>
       </c>
       <c r="G9" t="n">
-        <v>-20912.76808512999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>269</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +725,21 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>-20911.76808512999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>269</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +761,21 @@
         <v>1284.6605</v>
       </c>
       <c r="G11" t="n">
-        <v>-22196.42858512999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>269</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +797,21 @@
         <v>3138.0561</v>
       </c>
       <c r="G12" t="n">
-        <v>-25334.48468513</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>269</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +833,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-25324.48468513</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>269</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +869,21 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>-25326.48468513</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>269</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +905,21 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>-25327.48468513</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>269</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +941,21 @@
         <v>6319.8448</v>
       </c>
       <c r="G16" t="n">
-        <v>-19007.63988513</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>269</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +977,21 @@
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>-19009.63988513</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>269</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1013,21 @@
         <v>2288.8762</v>
       </c>
       <c r="G18" t="n">
-        <v>-21298.51608513</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>269</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1049,21 @@
         <v>1174.318</v>
       </c>
       <c r="G19" t="n">
-        <v>-21298.51608513</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>269</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1085,21 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>-21297.51608513</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>269</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1121,21 @@
         <v>2970.7303</v>
       </c>
       <c r="G21" t="n">
-        <v>-24268.24638512999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>269</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1157,21 @@
         <v>170.6254</v>
       </c>
       <c r="G22" t="n">
-        <v>-24097.62098512999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>269</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1193,21 @@
         <v>3867.0827</v>
       </c>
       <c r="G23" t="n">
-        <v>-20230.53828512999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>269</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1229,21 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-20231.53828512999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>269</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1265,21 @@
         <v>3.9126</v>
       </c>
       <c r="G25" t="n">
-        <v>-20231.53828512999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>269</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1301,21 @@
         <v>4415.6993</v>
       </c>
       <c r="G26" t="n">
-        <v>-24647.23758512999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>269</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1337,21 @@
         <v>4550.7595</v>
       </c>
       <c r="G27" t="n">
-        <v>-24647.23758512999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>269</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1373,21 @@
         <v>7623.3604</v>
       </c>
       <c r="G28" t="n">
-        <v>-32270.59798512999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>269</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1409,21 @@
         <v>576.5882</v>
       </c>
       <c r="G29" t="n">
-        <v>-31694.00978512999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>269</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1445,21 @@
         <v>576.588</v>
       </c>
       <c r="G30" t="n">
-        <v>-31117.42178512999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>269</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1481,21 @@
         <v>531.1018</v>
       </c>
       <c r="G31" t="n">
-        <v>-31117.42178512999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>269</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1517,21 @@
         <v>348</v>
       </c>
       <c r="G32" t="n">
-        <v>-31117.42178512999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>269</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1553,21 @@
         <v>332.5296</v>
       </c>
       <c r="G33" t="n">
-        <v>-31117.42178512999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>269</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,22 +1589,21 @@
         <v>3.8153</v>
       </c>
       <c r="G34" t="n">
-        <v>-31117.42178512999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>266</v>
-      </c>
-      <c r="J34" t="n">
-        <v>266</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1541,26 +1625,21 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-31118.42178512999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>266</v>
-      </c>
-      <c r="J35" t="n">
-        <v>266</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1582,26 +1661,21 @@
         <v>400</v>
       </c>
       <c r="G36" t="n">
-        <v>-31118.42178512999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>262</v>
-      </c>
-      <c r="J36" t="n">
-        <v>266</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1623,22 +1697,21 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-31108.42178512999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>262</v>
-      </c>
-      <c r="J37" t="n">
-        <v>262</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1660,26 +1733,21 @@
         <v>170.1989</v>
       </c>
       <c r="G38" t="n">
-        <v>-31278.62068512999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>267</v>
-      </c>
-      <c r="J38" t="n">
-        <v>262</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1701,26 +1769,21 @@
         <v>13652.2983</v>
       </c>
       <c r="G39" t="n">
-        <v>-17626.32238512999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>264</v>
-      </c>
-      <c r="J39" t="n">
-        <v>262</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>269</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1742,18 +1805,21 @@
         <v>941.064</v>
       </c>
       <c r="G40" t="n">
-        <v>-16685.25838512999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>269</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1775,18 +1841,21 @@
         <v>267.4433</v>
       </c>
       <c r="G41" t="n">
-        <v>-16952.70168512999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>269</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1808,18 +1877,21 @@
         <v>3579.2562</v>
       </c>
       <c r="G42" t="n">
-        <v>-16952.70168512999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>269</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1841,18 +1913,21 @@
         <v>132.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>-16952.70168512999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>269</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1874,18 +1949,21 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>-16951.70168512999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>269</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1907,18 +1985,21 @@
         <v>60</v>
       </c>
       <c r="G45" t="n">
-        <v>-16951.70168512999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>269</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1940,18 +2021,21 @@
         <v>941.064</v>
       </c>
       <c r="G46" t="n">
-        <v>-17892.76568512999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>269</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1973,18 +2057,21 @@
         <v>1131.8237</v>
       </c>
       <c r="G47" t="n">
-        <v>-17892.76568512999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>269</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2006,18 +2093,21 @@
         <v>8616.818300000001</v>
       </c>
       <c r="G48" t="n">
-        <v>-26509.58398512999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>269</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2039,18 +2129,21 @@
         <v>357</v>
       </c>
       <c r="G49" t="n">
-        <v>-26152.58398512999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>269</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2072,18 +2165,21 @@
         <v>1225.962</v>
       </c>
       <c r="G50" t="n">
-        <v>-27378.54598512999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>269</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2105,18 +2201,21 @@
         <v>468</v>
       </c>
       <c r="G51" t="n">
-        <v>-26910.54598512999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>269</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2138,18 +2237,21 @@
         <v>3.9029</v>
       </c>
       <c r="G52" t="n">
-        <v>-26914.44888512999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>269</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2171,18 +2273,21 @@
         <v>7555.4081</v>
       </c>
       <c r="G53" t="n">
-        <v>-19359.04078512999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>269</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2204,18 +2309,21 @@
         <v>1898.95</v>
       </c>
       <c r="G54" t="n">
-        <v>-19359.04078512999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>269</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2237,18 +2345,21 @@
         <v>53.4817</v>
       </c>
       <c r="G55" t="n">
-        <v>-19412.52248512999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>269</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2270,18 +2381,21 @@
         <v>1031.8838</v>
       </c>
       <c r="G56" t="n">
-        <v>-18380.63868512999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>269</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2303,18 +2417,23 @@
         <v>1295.4677</v>
       </c>
       <c r="G57" t="n">
-        <v>-18380.63868512999</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>267</v>
+      </c>
+      <c r="I57" t="n">
+        <v>269</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2336,18 +2455,21 @@
         <v>1060.1011</v>
       </c>
       <c r="G58" t="n">
-        <v>-19440.73978512999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>269</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2369,18 +2491,23 @@
         <v>2385.2275</v>
       </c>
       <c r="G59" t="n">
-        <v>-21825.96728512999</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>265</v>
+      </c>
+      <c r="I59" t="n">
+        <v>269</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2402,18 +2529,21 @@
         <v>930.451</v>
       </c>
       <c r="G60" t="n">
-        <v>-20895.51628512999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>269</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2435,18 +2565,21 @@
         <v>268.5683</v>
       </c>
       <c r="G61" t="n">
-        <v>-20895.51628512999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>269</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2468,18 +2601,21 @@
         <v>933.962</v>
       </c>
       <c r="G62" t="n">
-        <v>-19961.55428512999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>269</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2501,18 +2637,21 @@
         <v>100</v>
       </c>
       <c r="G63" t="n">
-        <v>-19861.55428512999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>269</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2534,18 +2673,21 @@
         <v>7255.6827</v>
       </c>
       <c r="G64" t="n">
-        <v>-27117.23698512999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>269</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2567,18 +2709,21 @@
         <v>221.9781</v>
       </c>
       <c r="G65" t="n">
-        <v>-27339.21508512999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>269</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2600,18 +2745,21 @@
         <v>833.962</v>
       </c>
       <c r="G66" t="n">
-        <v>-28173.17708512999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>269</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2633,18 +2781,21 @@
         <v>2.4908</v>
       </c>
       <c r="G67" t="n">
-        <v>-28170.68628512999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>269</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2666,18 +2817,21 @@
         <v>187.9999</v>
       </c>
       <c r="G68" t="n">
-        <v>-28358.68618512999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>269</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2699,18 +2853,21 @@
         <v>115</v>
       </c>
       <c r="G69" t="n">
-        <v>-28358.68618512999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>269</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2732,18 +2889,21 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>-28357.68618512999</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>269</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2765,18 +2925,21 @@
         <v>2409.7794</v>
       </c>
       <c r="G71" t="n">
-        <v>-28357.68618512999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>269</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2798,18 +2961,21 @@
         <v>3546.7413</v>
       </c>
       <c r="G72" t="n">
-        <v>-31904.42748512999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>269</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2831,18 +2997,21 @@
         <v>210.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>-31693.42758512999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>269</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2864,18 +3033,21 @@
         <v>140</v>
       </c>
       <c r="G74" t="n">
-        <v>-31693.42758512999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>269</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2897,18 +3069,21 @@
         <v>3.9705</v>
       </c>
       <c r="G75" t="n">
-        <v>-31689.45708512999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>269</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2930,18 +3105,21 @@
         <v>733.3161</v>
       </c>
       <c r="G76" t="n">
-        <v>-31689.45708512999</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>269</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2963,18 +3141,21 @@
         <v>27793.78030345</v>
       </c>
       <c r="G77" t="n">
-        <v>-3895.676781679995</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>269</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2996,18 +3177,21 @@
         <v>194.9743</v>
       </c>
       <c r="G78" t="n">
-        <v>-3700.702481679995</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>269</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3029,18 +3213,21 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>-3701.702481679995</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>269</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3062,18 +3249,21 @@
         <v>33</v>
       </c>
       <c r="G80" t="n">
-        <v>-3668.702481679995</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>269</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3095,18 +3285,21 @@
         <v>2</v>
       </c>
       <c r="G81" t="n">
-        <v>-3666.702481679995</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>269</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3128,18 +3321,21 @@
         <v>130.97</v>
       </c>
       <c r="G82" t="n">
-        <v>-3797.672481679995</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>269</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1.009869888475837</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3161,18 +3357,15 @@
         <v>712.8908</v>
       </c>
       <c r="G83" t="n">
-        <v>-3797.672481679995</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3194,18 +3387,15 @@
         <v>1016.4972</v>
       </c>
       <c r="G84" t="n">
-        <v>-3797.672481679995</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3227,18 +3417,15 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>-3796.672481679995</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3260,18 +3447,15 @@
         <v>40.2014</v>
       </c>
       <c r="G86" t="n">
-        <v>-3836.873881679995</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3293,18 +3477,15 @@
         <v>78.3</v>
       </c>
       <c r="G87" t="n">
-        <v>-3758.573881679994</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3326,18 +3507,15 @@
         <v>3.2215</v>
       </c>
       <c r="G88" t="n">
-        <v>-3761.795381679995</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3359,18 +3537,15 @@
         <v>40</v>
       </c>
       <c r="G89" t="n">
-        <v>-3801.795381679995</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3392,18 +3567,15 @@
         <v>7966.4014</v>
       </c>
       <c r="G90" t="n">
-        <v>4164.606018320005</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3425,18 +3597,15 @@
         <v>906.593</v>
       </c>
       <c r="G91" t="n">
-        <v>5071.199018320005</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3458,18 +3627,15 @@
         <v>3974.675</v>
       </c>
       <c r="G92" t="n">
-        <v>1096.524018320005</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3491,18 +3657,15 @@
         <v>906.593</v>
       </c>
       <c r="G93" t="n">
-        <v>2003.117018320005</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3524,18 +3687,15 @@
         <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>2004.117018320005</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3557,18 +3717,15 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>2003.117018320005</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3590,18 +3747,15 @@
         <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>2004.117018320005</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3623,18 +3777,15 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>2003.117018320005</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3656,18 +3807,15 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>2004.117018320005</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3689,18 +3837,15 @@
         <v>898.148</v>
       </c>
       <c r="G99" t="n">
-        <v>1105.969018320005</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3722,18 +3867,15 @@
         <v>4834.7752</v>
       </c>
       <c r="G100" t="n">
-        <v>-3728.806181679995</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3755,18 +3897,15 @@
         <v>10562.1167</v>
       </c>
       <c r="G101" t="n">
-        <v>6833.310518320005</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3788,18 +3927,15 @@
         <v>5740.5798</v>
       </c>
       <c r="G102" t="n">
-        <v>6833.310518320005</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3821,18 +3957,15 @@
         <v>2884</v>
       </c>
       <c r="G103" t="n">
-        <v>3949.310518320005</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3854,18 +3987,15 @@
         <v>51.9</v>
       </c>
       <c r="G104" t="n">
-        <v>4001.210518320005</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3887,18 +4017,15 @@
         <v>2010.51</v>
       </c>
       <c r="G105" t="n">
-        <v>6011.720518320005</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3920,18 +4047,15 @@
         <v>39.6163</v>
       </c>
       <c r="G106" t="n">
-        <v>5972.104218320005</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3953,18 +4077,15 @@
         <v>2800.9999</v>
       </c>
       <c r="G107" t="n">
-        <v>5972.104218320005</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3986,18 +4107,15 @@
         <v>2640.2227</v>
       </c>
       <c r="G108" t="n">
-        <v>5972.104218320005</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4019,18 +4137,15 @@
         <v>554.968</v>
       </c>
       <c r="G109" t="n">
-        <v>5972.104218320005</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4052,18 +4167,15 @@
         <v>400</v>
       </c>
       <c r="G110" t="n">
-        <v>5972.104218320005</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4085,18 +4197,15 @@
         <v>1094.6936</v>
       </c>
       <c r="G111" t="n">
-        <v>7066.797818320005</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4118,18 +4227,15 @@
         <v>2339.6459</v>
       </c>
       <c r="G112" t="n">
-        <v>7066.797818320005</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4151,18 +4257,15 @@
         <v>189.7466</v>
       </c>
       <c r="G113" t="n">
-        <v>7066.797818320005</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4184,18 +4287,15 @@
         <v>917.602</v>
       </c>
       <c r="G114" t="n">
-        <v>6149.195818320005</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4217,18 +4317,15 @@
         <v>2</v>
       </c>
       <c r="G115" t="n">
-        <v>6149.195818320005</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4250,18 +4347,15 @@
         <v>1.989</v>
       </c>
       <c r="G116" t="n">
-        <v>6151.184818320005</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4283,18 +4377,15 @@
         <v>540.532</v>
       </c>
       <c r="G117" t="n">
-        <v>5610.652818320004</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4316,18 +4407,15 @@
         <v>12836.5799</v>
       </c>
       <c r="G118" t="n">
-        <v>-7225.927081679996</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4349,18 +4437,15 @@
         <v>2500</v>
       </c>
       <c r="G119" t="n">
-        <v>-7225.927081679996</v>
-      </c>
-      <c r="H119" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4382,18 +4467,15 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>-7224.927081679996</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4415,18 +4497,15 @@
         <v>848.2972</v>
       </c>
       <c r="G121" t="n">
-        <v>-7224.927081679996</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4448,18 +4527,15 @@
         <v>3654.1956</v>
       </c>
       <c r="G122" t="n">
-        <v>-10879.12268168</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4481,18 +4557,15 @@
         <v>895.522</v>
       </c>
       <c r="G123" t="n">
-        <v>-9983.600681679996</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4514,18 +4587,15 @@
         <v>10095.4642</v>
       </c>
       <c r="G124" t="n">
-        <v>-20079.06488167999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4547,18 +4617,15 @@
         <v>3.9633</v>
       </c>
       <c r="G125" t="n">
-        <v>-20075.10158168</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4580,18 +4647,15 @@
         <v>7946.4854</v>
       </c>
       <c r="G126" t="n">
-        <v>-28021.58698168</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4613,18 +4677,15 @@
         <v>10</v>
       </c>
       <c r="G127" t="n">
-        <v>-28011.58698168</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4646,18 +4707,15 @@
         <v>1800</v>
       </c>
       <c r="G128" t="n">
-        <v>-29811.58698168</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4679,18 +4737,15 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>-29810.58698168</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4712,18 +4767,15 @@
         <v>903.486</v>
       </c>
       <c r="G130" t="n">
-        <v>-30714.07298168</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4745,18 +4797,15 @@
         <v>113</v>
       </c>
       <c r="G131" t="n">
-        <v>-30714.07298168</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4778,18 +4827,15 @@
         <v>2501.0468</v>
       </c>
       <c r="G132" t="n">
-        <v>-33215.11978168</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4811,18 +4857,15 @@
         <v>10</v>
       </c>
       <c r="G133" t="n">
-        <v>-33205.11978168</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4844,18 +4887,15 @@
         <v>22.1135</v>
       </c>
       <c r="G134" t="n">
-        <v>-33205.11978168</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4877,18 +4917,15 @@
         <v>2009.1851</v>
       </c>
       <c r="G135" t="n">
-        <v>-35214.30488168</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4910,18 +4947,15 @@
         <v>10</v>
       </c>
       <c r="G136" t="n">
-        <v>-35204.30488168</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4943,18 +4977,15 @@
         <v>26.3257</v>
       </c>
       <c r="G137" t="n">
-        <v>-35230.63058168</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4976,18 +5007,15 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>-35229.63058168</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5009,18 +5037,15 @@
         <v>181</v>
       </c>
       <c r="G139" t="n">
-        <v>-35229.63058168</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5042,18 +5067,15 @@
         <v>140</v>
       </c>
       <c r="G140" t="n">
-        <v>-35089.63058168</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5075,18 +5097,15 @@
         <v>0.8588</v>
       </c>
       <c r="G141" t="n">
-        <v>-35089.63058168</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5108,18 +5127,15 @@
         <v>1</v>
       </c>
       <c r="G142" t="n">
-        <v>-35088.63058168</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5141,18 +5157,15 @@
         <v>3000</v>
       </c>
       <c r="G143" t="n">
-        <v>-35088.63058168</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5174,18 +5187,15 @@
         <v>178.6324</v>
       </c>
       <c r="G144" t="n">
-        <v>-35267.26298168</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5207,18 +5217,15 @@
         <v>294.6739</v>
       </c>
       <c r="G145" t="n">
-        <v>-34972.58908168</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5240,18 +5247,15 @@
         <v>170.01</v>
       </c>
       <c r="G146" t="n">
-        <v>-35142.59908168</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5273,18 +5277,15 @@
         <v>179.01</v>
       </c>
       <c r="G147" t="n">
-        <v>-34963.58908168</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5306,18 +5307,15 @@
         <v>1679</v>
       </c>
       <c r="G148" t="n">
-        <v>-33284.58908168</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5339,18 +5337,15 @@
         <v>3871.6355</v>
       </c>
       <c r="G149" t="n">
-        <v>-33284.58908168</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5372,18 +5367,15 @@
         <v>2181.2454</v>
       </c>
       <c r="G150" t="n">
-        <v>-33284.58908168</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5405,18 +5397,15 @@
         <v>18.9456</v>
       </c>
       <c r="G151" t="n">
-        <v>-33265.64348168</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5438,18 +5427,15 @@
         <v>172.8675</v>
       </c>
       <c r="G152" t="n">
-        <v>-33438.51098168</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5471,18 +5457,15 @@
         <v>343.7862</v>
       </c>
       <c r="G153" t="n">
-        <v>-33094.72478168</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5504,18 +5487,15 @@
         <v>119</v>
       </c>
       <c r="G154" t="n">
-        <v>-33213.72478168</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5537,18 +5517,15 @@
         <v>593.4172</v>
       </c>
       <c r="G155" t="n">
-        <v>-32620.30758168</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5570,18 +5547,15 @@
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>-32619.30758168</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5603,18 +5577,15 @@
         <v>6200.5869</v>
       </c>
       <c r="G157" t="n">
-        <v>-38819.89448168</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5636,18 +5607,15 @@
         <v>120</v>
       </c>
       <c r="G158" t="n">
-        <v>-38939.89448168</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5669,18 +5637,15 @@
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>-38938.89448168</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5702,18 +5667,15 @@
         <v>1173.9343</v>
       </c>
       <c r="G160" t="n">
-        <v>-40112.82878168</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5735,18 +5697,15 @@
         <v>2200</v>
       </c>
       <c r="G161" t="n">
-        <v>-42312.82878168</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5768,18 +5727,15 @@
         <v>1839.1613</v>
       </c>
       <c r="G162" t="n">
-        <v>-40473.66748168</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5801,18 +5757,15 @@
         <v>138</v>
       </c>
       <c r="G163" t="n">
-        <v>-40473.66748168</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5834,18 +5787,15 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>-40472.66748168</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5867,18 +5817,15 @@
         <v>5311.0035</v>
       </c>
       <c r="G165" t="n">
-        <v>-45783.67098168</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
